--- a/Excel/FLL_Website_Content_0306.xlsx
+++ b/Excel/FLL_Website_Content_0306.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\FFLSupport\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\GitHub\FFLSupport\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1A17CF-9C64-449A-BF02-1CE6868EDB4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAB783D-5AB8-4BC5-B396-1528BA407625}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1056" windowWidth="34248" windowHeight="11940" tabRatio="461" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="34245" windowHeight="11940" tabRatio="461" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="13" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Positive Feedback'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Quick_Links!$A$1:$H$10</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="1247">
   <si>
     <t xml:space="preserve">Category </t>
   </si>
@@ -4287,7 +4287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4549,31 +4549,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4861,14 +4854,14 @@
       <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4879,7 +4872,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -4890,7 +4883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4901,7 +4894,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -4912,7 +4905,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -4923,7 +4916,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -4934,7 +4927,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -4945,7 +4938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4956,7 +4949,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -4967,7 +4960,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -4978,7 +4971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -4989,7 +4982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -5000,7 +4993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -5019,29 +5012,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D539" sqref="D539"/>
+      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B458" sqref="B458"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="73.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="73.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="22" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="31" width="9.109375" style="9"/>
-    <col min="32" max="16384" width="9.109375" style="8"/>
+    <col min="5" max="5" width="8.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="31" width="9.140625" style="9"/>
+    <col min="32" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -5060,14 +5052,14 @@
       <c r="F1" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="17" t="s">
         <v>431</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -5110,7 +5102,7 @@
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>
     </row>
-    <row r="3" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -5153,7 +5145,7 @@
       <c r="AD3" s="11"/>
       <c r="AE3" s="11"/>
     </row>
-    <row r="4" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -5200,7 +5192,7 @@
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
     </row>
-    <row r="5" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5235,7 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
     </row>
-    <row r="6" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5286,7 +5278,7 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
     </row>
-    <row r="7" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -5329,7 +5321,7 @@
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
     </row>
-    <row r="8" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -5372,7 +5364,7 @@
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
     </row>
-    <row r="9" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -5415,7 +5407,7 @@
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -5458,7 +5450,7 @@
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
     </row>
-    <row r="11" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -5501,7 +5493,7 @@
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
     </row>
-    <row r="12" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -5544,7 +5536,7 @@
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
     </row>
-    <row r="13" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>7</v>
       </c>
@@ -5587,7 +5579,7 @@
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
     </row>
-    <row r="14" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -5630,7 +5622,7 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -5677,7 +5669,7 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -5720,7 +5712,7 @@
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
     </row>
-    <row r="17" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -5767,7 +5759,7 @@
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
     </row>
-    <row r="18" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -5810,7 +5802,7 @@
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
     </row>
-    <row r="19" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
@@ -5853,7 +5845,7 @@
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
     </row>
-    <row r="20" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>107</v>
       </c>
@@ -5870,7 +5862,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>107</v>
       </c>
@@ -5917,7 +5909,7 @@
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
     </row>
-    <row r="22" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>107</v>
       </c>
@@ -5960,7 +5952,7 @@
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
     </row>
-    <row r="23" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>107</v>
       </c>
@@ -6003,7 +5995,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>107</v>
       </c>
@@ -6050,7 +6042,7 @@
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
     </row>
-    <row r="25" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>107</v>
       </c>
@@ -6093,7 +6085,7 @@
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
     </row>
-    <row r="26" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>107</v>
       </c>
@@ -6140,7 +6132,7 @@
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
     </row>
-    <row r="27" spans="1:31" s="20" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>107</v>
       </c>
@@ -6183,7 +6175,7 @@
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
     </row>
-    <row r="28" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>107</v>
       </c>
@@ -6200,7 +6192,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>107</v>
       </c>
@@ -6247,7 +6239,7 @@
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
     </row>
-    <row r="30" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>107</v>
       </c>
@@ -6294,7 +6286,7 @@
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
     </row>
-    <row r="31" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>107</v>
       </c>
@@ -6317,7 +6309,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>107</v>
       </c>
@@ -6364,7 +6356,7 @@
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
     </row>
-    <row r="33" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>107</v>
       </c>
@@ -6407,7 +6399,7 @@
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
     </row>
-    <row r="34" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>107</v>
       </c>
@@ -6424,7 +6416,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>107</v>
       </c>
@@ -6467,7 +6459,7 @@
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
     </row>
-    <row r="36" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -6510,7 +6502,7 @@
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
     </row>
-    <row r="37" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -6553,7 +6545,7 @@
       <c r="AD37" s="11"/>
       <c r="AE37" s="11"/>
     </row>
-    <row r="38" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>107</v>
       </c>
@@ -6596,7 +6588,7 @@
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
     </row>
-    <row r="39" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>107</v>
       </c>
@@ -6639,7 +6631,7 @@
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
     </row>
-    <row r="40" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>107</v>
       </c>
@@ -6682,7 +6674,7 @@
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
     </row>
-    <row r="41" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>107</v>
       </c>
@@ -6725,7 +6717,7 @@
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
     </row>
-    <row r="42" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>107</v>
       </c>
@@ -6742,7 +6734,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>107</v>
       </c>
@@ -6759,7 +6751,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>107</v>
       </c>
@@ -6802,7 +6794,7 @@
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
     </row>
-    <row r="45" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>107</v>
       </c>
@@ -6819,9 +6811,8 @@
       <c r="F45" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>107</v>
       </c>
@@ -6838,9 +6829,8 @@
       <c r="F46" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>107</v>
       </c>
@@ -6857,9 +6847,8 @@
       <c r="F47" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>107</v>
       </c>
@@ -6876,9 +6865,8 @@
       <c r="F48" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>107</v>
       </c>
@@ -6895,9 +6883,8 @@
       <c r="F49" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>107</v>
       </c>
@@ -6914,9 +6901,8 @@
       <c r="F50" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
@@ -6933,9 +6919,8 @@
       <c r="F51" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>107</v>
       </c>
@@ -6952,9 +6937,8 @@
       <c r="F52" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>107</v>
       </c>
@@ -6971,9 +6955,8 @@
       <c r="F53" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="51" t="s">
         <v>107</v>
       </c>
@@ -6990,8 +6973,9 @@
       <c r="F54" s="10" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" s="29" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:31" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>107</v>
       </c>
@@ -7030,7 +7014,7 @@
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
     </row>
-    <row r="56" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>107</v>
       </c>
@@ -7073,7 +7057,7 @@
       <c r="AD56" s="11"/>
       <c r="AE56" s="11"/>
     </row>
-    <row r="57" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="str">
         <f>+B57</f>
         <v>Create Personal Development Plans</v>
@@ -7117,7 +7101,7 @@
       <c r="AD57" s="11"/>
       <c r="AE57" s="11"/>
     </row>
-    <row r="58" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>3</v>
       </c>
@@ -7160,7 +7144,7 @@
       <c r="AD58" s="11"/>
       <c r="AE58" s="11"/>
     </row>
-    <row r="59" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>3</v>
       </c>
@@ -7205,7 +7189,7 @@
       <c r="AD59" s="11"/>
       <c r="AE59" s="11"/>
     </row>
-    <row r="60" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>3</v>
       </c>
@@ -7252,7 +7236,7 @@
       <c r="AD60" s="11"/>
       <c r="AE60" s="11"/>
     </row>
-    <row r="61" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>3</v>
       </c>
@@ -7295,7 +7279,7 @@
       <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
     </row>
-    <row r="62" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>3</v>
       </c>
@@ -7312,7 +7296,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>3</v>
       </c>
@@ -7355,7 +7339,7 @@
       <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
     </row>
-    <row r="64" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>3</v>
       </c>
@@ -7398,7 +7382,7 @@
       <c r="AD64" s="11"/>
       <c r="AE64" s="11"/>
     </row>
-    <row r="65" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -7441,7 +7425,7 @@
       <c r="AD65" s="11"/>
       <c r="AE65" s="11"/>
     </row>
-    <row r="66" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>3</v>
       </c>
@@ -7484,7 +7468,7 @@
       <c r="AD66" s="11"/>
       <c r="AE66" s="11"/>
     </row>
-    <row r="67" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>3</v>
       </c>
@@ -7527,7 +7511,7 @@
       <c r="AD67" s="11"/>
       <c r="AE67" s="11"/>
     </row>
-    <row r="68" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>3</v>
       </c>
@@ -7566,7 +7550,7 @@
       <c r="AD68" s="11"/>
       <c r="AE68" s="11"/>
     </row>
-    <row r="69" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>3</v>
       </c>
@@ -7607,7 +7591,7 @@
       <c r="AD69" s="11"/>
       <c r="AE69" s="11"/>
     </row>
-    <row r="70" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>3</v>
       </c>
@@ -7652,7 +7636,7 @@
       <c r="AD70" s="11"/>
       <c r="AE70" s="11"/>
     </row>
-    <row r="71" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>3</v>
       </c>
@@ -7699,7 +7683,7 @@
       <c r="AD71" s="11"/>
       <c r="AE71" s="11"/>
     </row>
-    <row r="72" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>3</v>
       </c>
@@ -7746,7 +7730,7 @@
       <c r="AD72" s="11"/>
       <c r="AE72" s="11"/>
     </row>
-    <row r="73" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>3</v>
       </c>
@@ -7791,7 +7775,7 @@
       <c r="AD73" s="11"/>
       <c r="AE73" s="11"/>
     </row>
-    <row r="74" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>3</v>
       </c>
@@ -7834,7 +7818,7 @@
       <c r="AD74" s="11"/>
       <c r="AE74" s="11"/>
     </row>
-    <row r="75" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>3</v>
       </c>
@@ -7879,7 +7863,7 @@
       <c r="AD75" s="11"/>
       <c r="AE75" s="11"/>
     </row>
-    <row r="76" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>3</v>
       </c>
@@ -7926,7 +7910,7 @@
       <c r="AD76" s="11"/>
       <c r="AE76" s="11"/>
     </row>
-    <row r="77" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>3</v>
       </c>
@@ -7973,7 +7957,7 @@
       <c r="AD77" s="11"/>
       <c r="AE77" s="11"/>
     </row>
-    <row r="78" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>3</v>
       </c>
@@ -8016,7 +8000,7 @@
       <c r="AD78" s="11"/>
       <c r="AE78" s="11"/>
     </row>
-    <row r="79" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>3</v>
       </c>
@@ -8059,7 +8043,7 @@
       <c r="AD79" s="11"/>
       <c r="AE79" s="11"/>
     </row>
-    <row r="80" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>3</v>
       </c>
@@ -8102,7 +8086,7 @@
       <c r="AD80" s="11"/>
       <c r="AE80" s="11"/>
     </row>
-    <row r="81" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>3</v>
       </c>
@@ -8145,7 +8129,7 @@
       <c r="AD81" s="11"/>
       <c r="AE81" s="11"/>
     </row>
-    <row r="82" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="51" t="s">
         <v>3</v>
       </c>
@@ -8188,7 +8172,7 @@
       <c r="AD82" s="11"/>
       <c r="AE82" s="11"/>
     </row>
-    <row r="83" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>3</v>
       </c>
@@ -8235,7 +8219,7 @@
       <c r="AD83" s="11"/>
       <c r="AE83" s="11"/>
     </row>
-    <row r="84" spans="1:31" s="6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>3</v>
       </c>
@@ -8282,7 +8266,7 @@
       <c r="AD84" s="11"/>
       <c r="AE84" s="11"/>
     </row>
-    <row r="85" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>3</v>
       </c>
@@ -8325,7 +8309,7 @@
       <c r="AD85" s="11"/>
       <c r="AE85" s="11"/>
     </row>
-    <row r="86" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>3</v>
       </c>
@@ -8368,7 +8352,7 @@
       <c r="AD86" s="11"/>
       <c r="AE86" s="11"/>
     </row>
-    <row r="87" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -8413,7 +8397,7 @@
       <c r="AD87" s="11"/>
       <c r="AE87" s="11"/>
     </row>
-    <row r="88" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>3</v>
       </c>
@@ -8456,7 +8440,7 @@
       <c r="AD88" s="11"/>
       <c r="AE88" s="11"/>
     </row>
-    <row r="89" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>111</v>
       </c>
@@ -8499,7 +8483,7 @@
       <c r="AD89" s="11"/>
       <c r="AE89" s="11"/>
     </row>
-    <row r="90" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>111</v>
       </c>
@@ -8522,7 +8506,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="91" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="87" t="s">
         <v>111</v>
       </c>
@@ -8569,7 +8553,7 @@
       <c r="AD91" s="11"/>
       <c r="AE91" s="11"/>
     </row>
-    <row r="92" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="87" t="s">
         <v>111</v>
       </c>
@@ -8616,7 +8600,7 @@
       <c r="AD92" s="11"/>
       <c r="AE92" s="11"/>
     </row>
-    <row r="93" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="87" t="s">
         <v>111</v>
       </c>
@@ -8663,7 +8647,7 @@
       <c r="AD93" s="11"/>
       <c r="AE93" s="11"/>
     </row>
-    <row r="94" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>111</v>
       </c>
@@ -8706,7 +8690,7 @@
       <c r="AD94" s="11"/>
       <c r="AE94" s="11"/>
     </row>
-    <row r="95" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="87" t="s">
         <v>111</v>
       </c>
@@ -8753,7 +8737,7 @@
       <c r="AD95" s="11"/>
       <c r="AE95" s="11"/>
     </row>
-    <row r="96" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>111</v>
       </c>
@@ -8796,7 +8780,7 @@
       <c r="AD96" s="11"/>
       <c r="AE96" s="11"/>
     </row>
-    <row r="97" spans="1:31" s="6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>111</v>
       </c>
@@ -8839,7 +8823,7 @@
       <c r="AD97" s="11"/>
       <c r="AE97" s="11"/>
     </row>
-    <row r="98" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>111</v>
       </c>
@@ -8882,7 +8866,7 @@
       <c r="AD98" s="11"/>
       <c r="AE98" s="11"/>
     </row>
-    <row r="99" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>111</v>
       </c>
@@ -8925,7 +8909,7 @@
       <c r="AD99" s="11"/>
       <c r="AE99" s="11"/>
     </row>
-    <row r="100" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>111</v>
       </c>
@@ -8968,7 +8952,7 @@
       <c r="AD100" s="11"/>
       <c r="AE100" s="11"/>
     </row>
-    <row r="101" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>111</v>
       </c>
@@ -9011,7 +8995,7 @@
       <c r="AD101" s="11"/>
       <c r="AE101" s="11"/>
     </row>
-    <row r="102" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>111</v>
       </c>
@@ -9054,7 +9038,7 @@
       <c r="AD102" s="11"/>
       <c r="AE102" s="11"/>
     </row>
-    <row r="103" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="87" t="s">
         <v>111</v>
       </c>
@@ -9101,7 +9085,7 @@
       <c r="AD103" s="11"/>
       <c r="AE103" s="11"/>
     </row>
-    <row r="104" spans="1:31" s="6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>111</v>
       </c>
@@ -9144,7 +9128,7 @@
       <c r="AD104" s="11"/>
       <c r="AE104" s="11"/>
     </row>
-    <row r="105" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="87" t="s">
         <v>111</v>
       </c>
@@ -9191,7 +9175,7 @@
       <c r="AD105" s="11"/>
       <c r="AE105" s="11"/>
     </row>
-    <row r="106" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>111</v>
       </c>
@@ -9234,7 +9218,7 @@
       <c r="AD106" s="11"/>
       <c r="AE106" s="11"/>
     </row>
-    <row r="107" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>153</v>
       </c>
@@ -9277,7 +9261,7 @@
       <c r="AD107" s="11"/>
       <c r="AE107" s="11"/>
     </row>
-    <row r="108" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>111</v>
       </c>
@@ -9320,7 +9304,7 @@
       <c r="AD108" s="11"/>
       <c r="AE108" s="11"/>
     </row>
-    <row r="109" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>111</v>
       </c>
@@ -9363,7 +9347,7 @@
       <c r="AD109" s="11"/>
       <c r="AE109" s="11"/>
     </row>
-    <row r="110" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>111</v>
       </c>
@@ -9410,7 +9394,7 @@
       <c r="AD110" s="11"/>
       <c r="AE110" s="11"/>
     </row>
-    <row r="111" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="88" t="s">
         <v>111</v>
       </c>
@@ -9453,7 +9437,7 @@
       <c r="AD111" s="11"/>
       <c r="AE111" s="11"/>
     </row>
-    <row r="112" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>111</v>
       </c>
@@ -9496,7 +9480,7 @@
       <c r="AD112" s="11"/>
       <c r="AE112" s="11"/>
     </row>
-    <row r="113" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>89</v>
       </c>
@@ -9543,7 +9527,7 @@
       <c r="AD113" s="11"/>
       <c r="AE113" s="11"/>
     </row>
-    <row r="114" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>89</v>
       </c>
@@ -9586,7 +9570,7 @@
       <c r="AD114" s="11"/>
       <c r="AE114" s="11"/>
     </row>
-    <row r="115" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>89</v>
       </c>
@@ -9633,7 +9617,7 @@
       <c r="AD115" s="11"/>
       <c r="AE115" s="11"/>
     </row>
-    <row r="116" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>89</v>
       </c>
@@ -9680,7 +9664,7 @@
       <c r="AD116" s="11"/>
       <c r="AE116" s="11"/>
     </row>
-    <row r="117" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>89</v>
       </c>
@@ -9727,7 +9711,7 @@
       <c r="AD117" s="11"/>
       <c r="AE117" s="11"/>
     </row>
-    <row r="118" spans="1:31" s="6" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>89</v>
       </c>
@@ -9770,7 +9754,7 @@
       <c r="AD118" s="11"/>
       <c r="AE118" s="11"/>
     </row>
-    <row r="119" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>89</v>
       </c>
@@ -9817,7 +9801,7 @@
       <c r="AD119" s="11"/>
       <c r="AE119" s="11"/>
     </row>
-    <row r="120" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>89</v>
       </c>
@@ -9864,7 +9848,7 @@
       <c r="AD120" s="11"/>
       <c r="AE120" s="11"/>
     </row>
-    <row r="121" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>89</v>
       </c>
@@ -9911,7 +9895,7 @@
       <c r="AD121" s="11"/>
       <c r="AE121" s="11"/>
     </row>
-    <row r="122" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>89</v>
       </c>
@@ -9954,7 +9938,7 @@
       <c r="AD122" s="11"/>
       <c r="AE122" s="11"/>
     </row>
-    <row r="123" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>89</v>
       </c>
@@ -9997,7 +9981,7 @@
       <c r="AD123" s="11"/>
       <c r="AE123" s="11"/>
     </row>
-    <row r="124" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>89</v>
       </c>
@@ -10040,7 +10024,7 @@
       <c r="AD124" s="11"/>
       <c r="AE124" s="11"/>
     </row>
-    <row r="125" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>89</v>
       </c>
@@ -10083,7 +10067,7 @@
       <c r="AD125" s="11"/>
       <c r="AE125" s="11"/>
     </row>
-    <row r="126" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="51" t="s">
         <v>89</v>
       </c>
@@ -10126,7 +10110,7 @@
       <c r="AD126" s="11"/>
       <c r="AE126" s="11"/>
     </row>
-    <row r="127" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>89</v>
       </c>
@@ -10173,7 +10157,7 @@
       <c r="AD127" s="11"/>
       <c r="AE127" s="11"/>
     </row>
-    <row r="128" spans="1:31" s="6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>89</v>
       </c>
@@ -10220,7 +10204,7 @@
       <c r="AD128" s="11"/>
       <c r="AE128" s="11"/>
     </row>
-    <row r="129" spans="1:31" s="6" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>89</v>
       </c>
@@ -10263,7 +10247,7 @@
       <c r="AD129" s="11"/>
       <c r="AE129" s="11"/>
     </row>
-    <row r="130" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>89</v>
       </c>
@@ -10310,7 +10294,7 @@
       <c r="AD130" s="11"/>
       <c r="AE130" s="11"/>
     </row>
-    <row r="131" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>89</v>
       </c>
@@ -10357,7 +10341,7 @@
       <c r="AD131" s="11"/>
       <c r="AE131" s="11"/>
     </row>
-    <row r="132" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>89</v>
       </c>
@@ -10400,7 +10384,7 @@
       <c r="AD132" s="11"/>
       <c r="AE132" s="11"/>
     </row>
-    <row r="133" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="51" t="s">
         <v>89</v>
       </c>
@@ -10443,7 +10427,7 @@
       <c r="AD133" s="11"/>
       <c r="AE133" s="11"/>
     </row>
-    <row r="134" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>89</v>
       </c>
@@ -10490,7 +10474,7 @@
       <c r="AD134" s="11"/>
       <c r="AE134" s="11"/>
     </row>
-    <row r="135" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>153</v>
       </c>
@@ -10537,7 +10521,7 @@
       <c r="AD135" s="11"/>
       <c r="AE135" s="11"/>
     </row>
-    <row r="136" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>153</v>
       </c>
@@ -10582,7 +10566,7 @@
       <c r="AD136" s="11"/>
       <c r="AE136" s="11"/>
     </row>
-    <row r="137" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>153</v>
       </c>
@@ -10627,7 +10611,7 @@
       <c r="AD137" s="11"/>
       <c r="AE137" s="11"/>
     </row>
-    <row r="138" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>153</v>
       </c>
@@ -10670,7 +10654,7 @@
       <c r="AD138" s="11"/>
       <c r="AE138" s="11"/>
     </row>
-    <row r="139" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>153</v>
       </c>
@@ -10717,7 +10701,7 @@
       <c r="AD139" s="11"/>
       <c r="AE139" s="11"/>
     </row>
-    <row r="140" spans="1:31" s="6" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>153</v>
       </c>
@@ -10760,7 +10744,7 @@
       <c r="AD140" s="11"/>
       <c r="AE140" s="11"/>
     </row>
-    <row r="141" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>153</v>
       </c>
@@ -10803,7 +10787,7 @@
       <c r="AD141" s="11"/>
       <c r="AE141" s="11"/>
     </row>
-    <row r="142" spans="1:31" s="6" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>153</v>
       </c>
@@ -10850,7 +10834,7 @@
       <c r="AD142" s="11"/>
       <c r="AE142" s="11"/>
     </row>
-    <row r="143" spans="1:31" s="6" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>153</v>
       </c>
@@ -10895,7 +10879,7 @@
       <c r="AD143" s="11"/>
       <c r="AE143" s="11"/>
     </row>
-    <row r="144" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>153</v>
       </c>
@@ -10938,7 +10922,7 @@
       <c r="AD144" s="11"/>
       <c r="AE144" s="11"/>
     </row>
-    <row r="145" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="50" t="s">
         <v>153</v>
       </c>
@@ -10957,7 +10941,7 @@
       </c>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>153</v>
       </c>
@@ -10978,7 +10962,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>153</v>
       </c>
@@ -11001,7 +10985,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>153</v>
       </c>
@@ -11024,7 +11008,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>153</v>
       </c>
@@ -11045,7 +11029,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="11" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>153</v>
       </c>
@@ -11064,7 +11048,7 @@
       </c>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
         <v>1019</v>
       </c>
@@ -11081,7 +11065,7 @@
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>153</v>
       </c>
@@ -11100,7 +11084,7 @@
       </c>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>153</v>
       </c>
@@ -11118,7 +11102,7 @@
       </c>
       <c r="G153" s="42"/>
     </row>
-    <row r="154" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>153</v>
       </c>
@@ -11137,7 +11121,7 @@
       </c>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" s="11" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>1019</v>
       </c>
@@ -11156,7 +11140,7 @@
       </c>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>153</v>
       </c>
@@ -11173,7 +11157,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>153</v>
       </c>
@@ -11196,7 +11180,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>153</v>
       </c>
@@ -11217,7 +11201,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>153</v>
       </c>
@@ -11234,7 +11218,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>153</v>
       </c>
@@ -11257,7 +11241,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="161" spans="1:31" s="7" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:31" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
         <v>1019</v>
       </c>
@@ -11300,7 +11284,7 @@
       <c r="AD161" s="11"/>
       <c r="AE161" s="11"/>
     </row>
-    <row r="162" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>153</v>
       </c>
@@ -11317,7 +11301,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="163" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>153</v>
       </c>
@@ -11334,7 +11318,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="164" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>153</v>
       </c>
@@ -11351,7 +11335,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="165" spans="1:31" s="11" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>153</v>
       </c>
@@ -11368,7 +11352,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="166" spans="1:31" s="17" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:31" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="88" t="s">
         <v>153</v>
       </c>
@@ -11387,7 +11371,7 @@
       </c>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="49" t="s">
         <v>108</v>
       </c>
@@ -11406,7 +11390,7 @@
       </c>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:31" s="7" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>108</v>
       </c>
@@ -11451,7 +11435,7 @@
       <c r="AD168" s="11"/>
       <c r="AE168" s="11"/>
     </row>
-    <row r="169" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>108</v>
       </c>
@@ -11496,7 +11480,7 @@
       <c r="AD169" s="11"/>
       <c r="AE169" s="11"/>
     </row>
-    <row r="170" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>108</v>
       </c>
@@ -11543,7 +11527,7 @@
       <c r="AD170" s="11"/>
       <c r="AE170" s="11"/>
     </row>
-    <row r="171" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>108</v>
       </c>
@@ -11590,7 +11574,7 @@
       <c r="AD171" s="11"/>
       <c r="AE171" s="11"/>
     </row>
-    <row r="172" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
         <v>108</v>
       </c>
@@ -11637,7 +11621,7 @@
       <c r="AD172" s="11"/>
       <c r="AE172" s="11"/>
     </row>
-    <row r="173" spans="1:31" s="11" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:31" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>108</v>
       </c>
@@ -11657,7 +11641,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="174" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>108</v>
       </c>
@@ -11674,7 +11658,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="175" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>108</v>
       </c>
@@ -11719,7 +11703,7 @@
       <c r="AD175" s="11"/>
       <c r="AE175" s="11"/>
     </row>
-    <row r="176" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:31" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>108</v>
       </c>
@@ -11764,7 +11748,7 @@
       <c r="AD176" s="11"/>
       <c r="AE176" s="11"/>
     </row>
-    <row r="177" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>108</v>
       </c>
@@ -11807,7 +11791,7 @@
       <c r="AD177" s="11"/>
       <c r="AE177" s="11"/>
     </row>
-    <row r="178" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>108</v>
       </c>
@@ -11824,9 +11808,8 @@
       <c r="F178" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G178" s="11"/>
-    </row>
-    <row r="179" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>108</v>
       </c>
@@ -11869,7 +11852,7 @@
       <c r="AD179" s="11"/>
       <c r="AE179" s="11"/>
     </row>
-    <row r="180" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>108</v>
       </c>
@@ -11912,7 +11895,7 @@
       <c r="AD180" s="11"/>
       <c r="AE180" s="11"/>
     </row>
-    <row r="181" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>108</v>
       </c>
@@ -11929,9 +11912,8 @@
       <c r="F181" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G181" s="11"/>
-    </row>
-    <row r="182" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>108</v>
       </c>
@@ -11948,7 +11930,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="183" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>108</v>
       </c>
@@ -11993,7 +11975,7 @@
       <c r="AD183" s="11"/>
       <c r="AE183" s="11"/>
     </row>
-    <row r="184" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>108</v>
       </c>
@@ -12038,7 +12020,7 @@
       <c r="AD184" s="11"/>
       <c r="AE184" s="11"/>
     </row>
-    <row r="185" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="50" t="s">
         <v>108</v>
       </c>
@@ -12081,7 +12063,7 @@
       <c r="AD185" s="11"/>
       <c r="AE185" s="11"/>
     </row>
-    <row r="186" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>108</v>
       </c>
@@ -12126,7 +12108,7 @@
       <c r="AD186" s="11"/>
       <c r="AE186" s="11"/>
     </row>
-    <row r="187" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>108</v>
       </c>
@@ -12169,7 +12151,7 @@
       <c r="AD187" s="11"/>
       <c r="AE187" s="11"/>
     </row>
-    <row r="188" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>108</v>
       </c>
@@ -12212,7 +12194,7 @@
       <c r="AD188" s="11"/>
       <c r="AE188" s="11"/>
     </row>
-    <row r="189" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>108</v>
       </c>
@@ -12255,7 +12237,7 @@
       <c r="AD189" s="11"/>
       <c r="AE189" s="11"/>
     </row>
-    <row r="190" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>108</v>
       </c>
@@ -12298,7 +12280,7 @@
       <c r="AD190" s="11"/>
       <c r="AE190" s="11"/>
     </row>
-    <row r="191" spans="1:31" s="6" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="27" t="s">
         <v>108</v>
       </c>
@@ -12345,7 +12327,7 @@
       <c r="AD191" s="11"/>
       <c r="AE191" s="11"/>
     </row>
-    <row r="192" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>108</v>
       </c>
@@ -12390,7 +12372,7 @@
       <c r="AD192" s="11"/>
       <c r="AE192" s="11"/>
     </row>
-    <row r="193" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>108</v>
       </c>
@@ -12408,7 +12390,7 @@
       </c>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="27" t="s">
         <v>108</v>
       </c>
@@ -12455,7 +12437,7 @@
       <c r="AD194" s="11"/>
       <c r="AE194" s="11"/>
     </row>
-    <row r="195" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="49" t="s">
         <v>108</v>
       </c>
@@ -12500,7 +12482,7 @@
       <c r="AD195" s="11"/>
       <c r="AE195" s="11"/>
     </row>
-    <row r="196" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>108</v>
       </c>
@@ -12543,7 +12525,7 @@
       <c r="AD196" s="11"/>
       <c r="AE196" s="11"/>
     </row>
-    <row r="197" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>108</v>
       </c>
@@ -12582,7 +12564,7 @@
       <c r="AD197" s="11"/>
       <c r="AE197" s="11"/>
     </row>
-    <row r="198" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>108</v>
       </c>
@@ -12627,7 +12609,7 @@
       <c r="AD198" s="11"/>
       <c r="AE198" s="11"/>
     </row>
-    <row r="199" spans="1:31" s="6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>108</v>
       </c>
@@ -12672,7 +12654,7 @@
       <c r="AD199" s="11"/>
       <c r="AE199" s="11"/>
     </row>
-    <row r="200" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>108</v>
       </c>
@@ -12715,7 +12697,7 @@
       <c r="AD200" s="11"/>
       <c r="AE200" s="11"/>
     </row>
-    <row r="201" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="27" t="s">
         <v>108</v>
       </c>
@@ -12762,7 +12744,7 @@
       <c r="AD201" s="11"/>
       <c r="AE201" s="11"/>
     </row>
-    <row r="202" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>108</v>
       </c>
@@ -12805,7 +12787,7 @@
       <c r="AD202" s="11"/>
       <c r="AE202" s="11"/>
     </row>
-    <row r="203" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>108</v>
       </c>
@@ -12848,7 +12830,7 @@
       <c r="AD203" s="11"/>
       <c r="AE203" s="11"/>
     </row>
-    <row r="204" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>108</v>
       </c>
@@ -12893,7 +12875,7 @@
       <c r="AD204" s="11"/>
       <c r="AE204" s="11"/>
     </row>
-    <row r="205" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="61" t="s">
         <v>108</v>
       </c>
@@ -12904,7 +12886,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="206" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="27" t="s">
         <v>108</v>
       </c>
@@ -12927,7 +12909,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="207" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>108</v>
       </c>
@@ -12970,7 +12952,7 @@
       <c r="AD207" s="11"/>
       <c r="AE207" s="11"/>
     </row>
-    <row r="208" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>108</v>
       </c>
@@ -13013,7 +12995,7 @@
       <c r="AD208" s="11"/>
       <c r="AE208" s="11"/>
     </row>
-    <row r="209" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>108</v>
       </c>
@@ -13056,7 +13038,7 @@
       <c r="AD209" s="11"/>
       <c r="AE209" s="11"/>
     </row>
-    <row r="210" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="27" t="s">
         <v>108</v>
       </c>
@@ -13103,7 +13085,7 @@
       <c r="AD210" s="11"/>
       <c r="AE210" s="11"/>
     </row>
-    <row r="211" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="27" t="s">
         <v>108</v>
       </c>
@@ -13150,7 +13132,7 @@
       <c r="AD211" s="11"/>
       <c r="AE211" s="11"/>
     </row>
-    <row r="212" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>108</v>
       </c>
@@ -13197,7 +13179,7 @@
       <c r="AD212" s="11"/>
       <c r="AE212" s="11"/>
     </row>
-    <row r="213" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>108</v>
       </c>
@@ -13242,7 +13224,7 @@
       <c r="AD213" s="11"/>
       <c r="AE213" s="11"/>
     </row>
-    <row r="214" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>108</v>
       </c>
@@ -13287,7 +13269,7 @@
       <c r="AD214" s="11"/>
       <c r="AE214" s="11"/>
     </row>
-    <row r="215" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>108</v>
       </c>
@@ -13332,14 +13314,14 @@
       <c r="AD215" s="11"/>
       <c r="AE215" s="11"/>
     </row>
-    <row r="216" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B216" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C216" s="107" t="s">
+      <c r="C216" s="101" t="s">
         <v>1211</v>
       </c>
       <c r="D216" s="9" t="s">
@@ -13377,7 +13359,7 @@
       <c r="AD216" s="11"/>
       <c r="AE216" s="11"/>
     </row>
-    <row r="217" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="61" t="s">
         <v>108</v>
       </c>
@@ -13416,7 +13398,7 @@
       <c r="AD217" s="11"/>
       <c r="AE217" s="11"/>
     </row>
-    <row r="218" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
         <v>108</v>
       </c>
@@ -13461,7 +13443,7 @@
       <c r="AD218" s="11"/>
       <c r="AE218" s="11"/>
     </row>
-    <row r="219" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
         <v>108</v>
       </c>
@@ -13508,7 +13490,7 @@
       <c r="AD219" s="11"/>
       <c r="AE219" s="11"/>
     </row>
-    <row r="220" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
         <v>108</v>
       </c>
@@ -13551,7 +13533,7 @@
       <c r="AD220" s="11"/>
       <c r="AE220" s="11"/>
     </row>
-    <row r="221" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>108</v>
       </c>
@@ -13594,7 +13576,7 @@
       <c r="AD221" s="11"/>
       <c r="AE221" s="11"/>
     </row>
-    <row r="222" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>108</v>
       </c>
@@ -13637,7 +13619,7 @@
       <c r="AD222" s="11"/>
       <c r="AE222" s="11"/>
     </row>
-    <row r="223" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
         <v>108</v>
       </c>
@@ -13684,7 +13666,7 @@
       <c r="AD223" s="11"/>
       <c r="AE223" s="11"/>
     </row>
-    <row r="224" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
         <v>108</v>
       </c>
@@ -13706,7 +13688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="61" t="s">
         <v>108</v>
       </c>
@@ -13717,7 +13699,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="226" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="61" t="s">
         <v>108</v>
       </c>
@@ -13728,7 +13710,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="227" spans="1:31" s="11" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:31" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
         <v>108</v>
       </c>
@@ -13749,7 +13731,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="228" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="27" t="s">
         <v>108</v>
       </c>
@@ -13796,7 +13778,7 @@
       <c r="AD228" s="11"/>
       <c r="AE228" s="11"/>
     </row>
-    <row r="229" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>108</v>
       </c>
@@ -13839,7 +13821,7 @@
       <c r="AD229" s="11"/>
       <c r="AE229" s="11"/>
     </row>
-    <row r="230" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>108</v>
       </c>
@@ -13882,7 +13864,7 @@
       <c r="AD230" s="11"/>
       <c r="AE230" s="11"/>
     </row>
-    <row r="231" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>108</v>
       </c>
@@ -13899,7 +13881,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="232" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>108</v>
       </c>
@@ -13916,7 +13898,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="233" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
         <v>108</v>
       </c>
@@ -13963,7 +13945,7 @@
       <c r="AD233" s="11"/>
       <c r="AE233" s="11"/>
     </row>
-    <row r="234" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>108</v>
       </c>
@@ -13980,7 +13962,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="235" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>108</v>
       </c>
@@ -13997,7 +13979,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="236" spans="1:31" s="11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>108</v>
       </c>
@@ -14014,7 +13996,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="237" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="27" t="s">
         <v>108</v>
       </c>
@@ -14061,7 +14043,7 @@
       <c r="AD237" s="11"/>
       <c r="AE237" s="11"/>
     </row>
-    <row r="238" spans="1:31" s="20" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:31" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>108</v>
       </c>
@@ -14080,7 +14062,7 @@
       </c>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="1:31" s="6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="27" t="s">
         <v>154</v>
       </c>
@@ -14127,7 +14109,7 @@
       <c r="AD239" s="11"/>
       <c r="AE239" s="11"/>
     </row>
-    <row r="240" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="27" t="s">
         <v>154</v>
       </c>
@@ -14174,7 +14156,7 @@
       <c r="AD240" s="11"/>
       <c r="AE240" s="11"/>
     </row>
-    <row r="241" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>154</v>
       </c>
@@ -14217,7 +14199,7 @@
       <c r="AD241" s="11"/>
       <c r="AE241" s="11"/>
     </row>
-    <row r="242" spans="1:31" s="6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="27" t="s">
         <v>154</v>
       </c>
@@ -14264,7 +14246,7 @@
       <c r="AD242" s="11"/>
       <c r="AE242" s="11"/>
     </row>
-    <row r="243" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="27" t="s">
         <v>154</v>
       </c>
@@ -14311,7 +14293,7 @@
       <c r="AD243" s="11"/>
       <c r="AE243" s="11"/>
     </row>
-    <row r="244" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="27" t="s">
         <v>154</v>
       </c>
@@ -14358,7 +14340,7 @@
       <c r="AD244" s="11"/>
       <c r="AE244" s="11"/>
     </row>
-    <row r="245" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="27" t="s">
         <v>154</v>
       </c>
@@ -14405,7 +14387,7 @@
       <c r="AD245" s="11"/>
       <c r="AE245" s="11"/>
     </row>
-    <row r="246" spans="1:31" s="6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>154</v>
       </c>
@@ -14452,7 +14434,7 @@
       <c r="AD246" s="11"/>
       <c r="AE246" s="11"/>
     </row>
-    <row r="247" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="27" t="s">
         <v>154</v>
       </c>
@@ -14499,7 +14481,7 @@
       <c r="AD247" s="11"/>
       <c r="AE247" s="11"/>
     </row>
-    <row r="248" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>154</v>
       </c>
@@ -14546,7 +14528,7 @@
       <c r="AD248" s="11"/>
       <c r="AE248" s="11"/>
     </row>
-    <row r="249" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="27" t="s">
         <v>154</v>
       </c>
@@ -14593,7 +14575,7 @@
       <c r="AD249" s="11"/>
       <c r="AE249" s="11"/>
     </row>
-    <row r="250" spans="1:31" s="6" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="27" t="s">
         <v>154</v>
       </c>
@@ -14640,7 +14622,7 @@
       <c r="AD250" s="11"/>
       <c r="AE250" s="11"/>
     </row>
-    <row r="251" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="27" t="s">
         <v>154</v>
       </c>
@@ -14687,7 +14669,7 @@
       <c r="AD251" s="11"/>
       <c r="AE251" s="11"/>
     </row>
-    <row r="252" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>154</v>
       </c>
@@ -14734,7 +14716,7 @@
       <c r="AD252" s="11"/>
       <c r="AE252" s="11"/>
     </row>
-    <row r="253" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>154</v>
       </c>
@@ -14777,7 +14759,7 @@
       <c r="AD253" s="11"/>
       <c r="AE253" s="11"/>
     </row>
-    <row r="254" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>154</v>
       </c>
@@ -14820,7 +14802,7 @@
       <c r="AD254" s="11"/>
       <c r="AE254" s="11"/>
     </row>
-    <row r="255" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="27" t="s">
         <v>154</v>
       </c>
@@ -14867,7 +14849,7 @@
       <c r="AD255" s="11"/>
       <c r="AE255" s="11"/>
     </row>
-    <row r="256" spans="1:31" s="6" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:31" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="27" t="s">
         <v>154</v>
       </c>
@@ -14914,7 +14896,7 @@
       <c r="AD256" s="11"/>
       <c r="AE256" s="11"/>
     </row>
-    <row r="257" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>154</v>
       </c>
@@ -14961,7 +14943,7 @@
       <c r="AD257" s="11"/>
       <c r="AE257" s="11"/>
     </row>
-    <row r="258" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>154</v>
       </c>
@@ -15004,7 +14986,7 @@
       <c r="AD258" s="11"/>
       <c r="AE258" s="11"/>
     </row>
-    <row r="259" spans="1:31" s="6" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>154</v>
       </c>
@@ -15047,7 +15029,7 @@
       <c r="AD259" s="11"/>
       <c r="AE259" s="11"/>
     </row>
-    <row r="260" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="27" t="s">
         <v>154</v>
       </c>
@@ -15070,7 +15052,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="261" spans="1:31" s="9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:31" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="27" t="s">
         <v>154</v>
       </c>
@@ -15093,7 +15075,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="262" spans="1:31" s="29" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:31" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="27" t="s">
         <v>154</v>
       </c>
@@ -15139,7 +15121,7 @@
       <c r="AC262" s="9"/>
       <c r="AD262" s="9"/>
     </row>
-    <row r="263" spans="1:31" s="29" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:31" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="27" t="s">
         <v>154</v>
       </c>
@@ -15185,7 +15167,7 @@
       <c r="AC263" s="9"/>
       <c r="AD263" s="9"/>
     </row>
-    <row r="264" spans="1:31" s="29" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:31" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>154</v>
       </c>
@@ -15227,7 +15209,7 @@
       <c r="AC264" s="9"/>
       <c r="AD264" s="9"/>
     </row>
-    <row r="265" spans="1:31" s="43" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:31" s="43" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>154</v>
       </c>
@@ -15269,7 +15251,7 @@
       <c r="AC265" s="11"/>
       <c r="AD265" s="11"/>
     </row>
-    <row r="266" spans="1:31" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>154</v>
       </c>
@@ -15286,9 +15268,8 @@
       <c r="F266" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G266" s="11"/>
-    </row>
-    <row r="267" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>154</v>
       </c>
@@ -15311,7 +15292,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="268" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>154</v>
       </c>
@@ -15328,9 +15309,8 @@
       <c r="F268" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G268" s="11"/>
-    </row>
-    <row r="269" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="51" t="s">
         <v>154</v>
       </c>
@@ -15347,8 +15327,9 @@
       <c r="F269" s="10" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="270" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G269" s="9"/>
+    </row>
+    <row r="270" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>110</v>
       </c>
@@ -15365,9 +15346,8 @@
       <c r="F270" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G270" s="11"/>
-    </row>
-    <row r="271" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>110</v>
       </c>
@@ -15384,9 +15364,8 @@
       <c r="F271" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G271" s="11"/>
-    </row>
-    <row r="272" spans="1:31" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>110</v>
       </c>
@@ -15403,9 +15382,8 @@
       <c r="F272" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G272" s="11"/>
-    </row>
-    <row r="273" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="27" t="s">
         <v>110</v>
       </c>
@@ -15424,11 +15402,11 @@
       <c r="F273" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G273" s="9" t="s">
+      <c r="G273" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>110</v>
       </c>
@@ -15445,9 +15423,8 @@
       <c r="F274" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G274" s="11"/>
-    </row>
-    <row r="275" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="27" t="s">
         <v>110</v>
       </c>
@@ -15466,18 +15443,18 @@
       <c r="F275" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G275" s="9" t="s">
+      <c r="G275" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="11" t="s">
+    <row r="276" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A276" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B276" s="42" t="s">
+      <c r="B276" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="C276" s="105" t="s">
+      <c r="C276" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D276" s="11">
@@ -15491,10 +15468,10 @@
         <v>1243</v>
       </c>
       <c r="H276" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
         <v>110</v>
       </c>
@@ -15513,11 +15490,11 @@
       <c r="F277" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G277" s="9" t="s">
+      <c r="G277" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="49" t="s">
         <v>110</v>
       </c>
@@ -15536,8 +15513,9 @@
       <c r="F278" s="10" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G278" s="9"/>
+    </row>
+    <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>110</v>
       </c>
@@ -15554,9 +15532,8 @@
       <c r="F279" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G279" s="11"/>
-    </row>
-    <row r="280" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>110</v>
       </c>
@@ -15575,9 +15552,8 @@
       <c r="F280" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G280" s="11"/>
-    </row>
-    <row r="281" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>110</v>
       </c>
@@ -15594,9 +15570,8 @@
       <c r="F281" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G281" s="11"/>
-    </row>
-    <row r="282" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>110</v>
       </c>
@@ -15613,9 +15588,8 @@
       <c r="F282" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G282" s="11"/>
-    </row>
-    <row r="283" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="27" t="s">
         <v>110</v>
       </c>
@@ -15634,11 +15608,11 @@
       <c r="F283" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G283" s="9" t="s">
+      <c r="G283" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
         <v>110</v>
       </c>
@@ -15657,11 +15631,11 @@
       <c r="F284" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G284" s="9" t="s">
+      <c r="G284" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="27" t="s">
         <v>110</v>
       </c>
@@ -15680,11 +15654,11 @@
       <c r="F285" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G285" s="9" t="s">
+      <c r="G285" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>110</v>
       </c>
@@ -15703,9 +15677,8 @@
       <c r="F286" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G286" s="11"/>
-    </row>
-    <row r="287" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>110</v>
       </c>
@@ -15722,9 +15695,8 @@
       <c r="F287" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G287" s="11"/>
-    </row>
-    <row r="288" spans="1:8" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>110</v>
       </c>
@@ -15743,7 +15715,7 @@
       </c>
       <c r="G288" s="11"/>
     </row>
-    <row r="289" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>110</v>
       </c>
@@ -15764,7 +15736,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>110</v>
       </c>
@@ -15781,9 +15753,8 @@
       <c r="F290" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G290" s="11"/>
-    </row>
-    <row r="291" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>110</v>
       </c>
@@ -15804,7 +15775,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>110</v>
       </c>
@@ -15825,7 +15796,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>110</v>
       </c>
@@ -15846,7 +15817,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
         <v>110</v>
       </c>
@@ -15865,37 +15836,34 @@
       <c r="F294" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G294" s="9" t="s">
+      <c r="G294" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="295" spans="1:8" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="11" t="s">
+    <row r="295" spans="1:7" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B295" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="C295" s="105" t="s">
-        <v>175</v>
-      </c>
-      <c r="D295" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E295" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F295" s="11" t="s">
+      <c r="B295" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F295" s="9" t="s">
         <v>339</v>
       </c>
       <c r="G295" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="H295" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="49" t="s">
         <v>110</v>
       </c>
@@ -15912,8 +15880,9 @@
       <c r="F296" s="10" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G296" s="9"/>
+    </row>
+    <row r="297" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>110</v>
       </c>
@@ -15930,9 +15899,8 @@
       <c r="F297" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G297" s="11"/>
-    </row>
-    <row r="298" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>110</v>
       </c>
@@ -15949,9 +15917,8 @@
       <c r="F298" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G298" s="11"/>
-    </row>
-    <row r="299" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>110</v>
       </c>
@@ -15968,9 +15935,8 @@
       <c r="F299" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G299" s="11"/>
-    </row>
-    <row r="300" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>110</v>
       </c>
@@ -15987,9 +15953,8 @@
       <c r="F300" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G300" s="11"/>
-    </row>
-    <row r="301" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>110</v>
       </c>
@@ -16006,9 +15971,8 @@
       <c r="F301" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G301" s="11"/>
-    </row>
-    <row r="302" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>110</v>
       </c>
@@ -16025,9 +15989,8 @@
       <c r="F302" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G302" s="11"/>
-    </row>
-    <row r="303" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>110</v>
       </c>
@@ -16048,7 +16011,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>110</v>
       </c>
@@ -16065,17 +16028,16 @@
       <c r="F304" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G304" s="11"/>
-    </row>
-    <row r="305" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>332</v>
+        <v>1092</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>326</v>
+        <v>1093</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>277</v>
@@ -16086,11 +16048,11 @@
       <c r="F305" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G305" s="9" t="s">
+      <c r="G305" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="12" t="s">
         <v>110</v>
       </c>
@@ -16106,8 +16068,9 @@
       <c r="F306" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G306" s="9"/>
+    </row>
+    <row r="307" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>110</v>
       </c>
@@ -16124,9 +16087,8 @@
       <c r="F307" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G307" s="11"/>
-    </row>
-    <row r="308" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>110</v>
       </c>
@@ -16143,17 +16105,16 @@
       <c r="F308" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G308" s="11"/>
-    </row>
-    <row r="309" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>1092</v>
+        <v>307</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>1093</v>
+        <v>632</v>
       </c>
       <c r="D309" s="9" t="s">
         <v>277</v>
@@ -16164,11 +16125,11 @@
       <c r="F309" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G309" s="9" t="s">
+      <c r="G309" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>110</v>
       </c>
@@ -16185,9 +16146,8 @@
       <c r="F310" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G310" s="11"/>
-    </row>
-    <row r="311" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="12" t="s">
         <v>110</v>
       </c>
@@ -16203,15 +16163,16 @@
       <c r="F311" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="9" t="s">
+      <c r="G311" s="9"/>
+    </row>
+    <row r="312" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B312" s="42" t="s">
+      <c r="B312" s="13" t="s">
         <v>1244</v>
       </c>
-      <c r="C312" s="9" t="s">
+      <c r="C312" s="12" t="s">
         <v>492</v>
       </c>
       <c r="D312" s="9" t="s">
@@ -16224,10 +16185,10 @@
         <v>1243</v>
       </c>
       <c r="H312" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="12" t="s">
         <v>110</v>
       </c>
@@ -16249,7 +16210,7 @@
       <c r="G313" s="9"/>
       <c r="H313" s="9"/>
     </row>
-    <row r="314" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="12" t="s">
         <v>110</v>
       </c>
@@ -16269,7 +16230,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>110</v>
       </c>
@@ -16286,17 +16247,16 @@
       <c r="F315" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G315" s="11"/>
-    </row>
-    <row r="316" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>307</v>
+        <v>630</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>277</v>
@@ -16307,11 +16267,11 @@
       <c r="F316" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G316" s="9" t="s">
+      <c r="G316" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="12" t="s">
         <v>110</v>
       </c>
@@ -16327,16 +16287,17 @@
       <c r="F317" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G317" s="9"/>
+    </row>
+    <row r="318" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>630</v>
+        <v>1089</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>631</v>
+        <v>1090</v>
       </c>
       <c r="D318" s="9" t="s">
         <v>277</v>
@@ -16347,18 +16308,18 @@
       <c r="F318" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G318" s="9" t="s">
+      <c r="G318" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="319" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="10" t="s">
+    <row r="319" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B319" s="10" t="s">
+      <c r="B319" s="49" t="s">
         <v>1243</v>
       </c>
-      <c r="C319" s="10" t="s">
+      <c r="C319" s="49" t="s">
         <v>438</v>
       </c>
       <c r="D319" s="10" t="s">
@@ -16370,10 +16331,10 @@
       </c>
       <c r="G319" s="10"/>
       <c r="H319" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="12" t="s">
         <v>110</v>
       </c>
@@ -16392,8 +16353,9 @@
       <c r="F320" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G320" s="9"/>
+    </row>
+    <row r="321" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="12" t="s">
         <v>110</v>
       </c>
@@ -16409,8 +16371,9 @@
       <c r="F321" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G321" s="9"/>
+    </row>
+    <row r="322" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>110</v>
       </c>
@@ -16427,9 +16390,8 @@
       <c r="F322" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G322" s="11"/>
-    </row>
-    <row r="323" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="12" t="s">
         <v>110</v>
       </c>
@@ -16448,8 +16410,9 @@
       <c r="F323" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G323" s="9"/>
+    </row>
+    <row r="324" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="12" t="s">
         <v>110</v>
       </c>
@@ -16468,8 +16431,9 @@
       <c r="F324" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G324" s="9"/>
+    </row>
+    <row r="325" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="12" t="s">
         <v>110</v>
       </c>
@@ -16485,8 +16449,9 @@
       <c r="F325" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G325" s="9"/>
+    </row>
+    <row r="326" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="51" t="s">
         <v>110</v>
       </c>
@@ -16503,8 +16468,9 @@
       <c r="F326" s="10" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G326" s="9"/>
+    </row>
+    <row r="327" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="12" t="s">
         <v>110</v>
       </c>
@@ -16524,7 +16490,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="12" t="s">
         <v>110</v>
       </c>
@@ -16544,7 +16510,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="12" t="s">
         <v>110</v>
       </c>
@@ -16564,7 +16530,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="12" t="s">
         <v>110</v>
       </c>
@@ -16584,7 +16550,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="12" t="s">
         <v>110</v>
       </c>
@@ -16604,7 +16570,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="12" t="s">
         <v>110</v>
       </c>
@@ -16624,7 +16590,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="12" t="s">
         <v>110</v>
       </c>
@@ -16644,7 +16610,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="12" t="s">
         <v>110</v>
       </c>
@@ -16664,7 +16630,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="12" t="s">
         <v>110</v>
       </c>
@@ -16684,7 +16650,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="12" t="s">
         <v>110</v>
       </c>
@@ -16704,7 +16670,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="12" t="s">
         <v>110</v>
       </c>
@@ -16724,7 +16690,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="12" t="s">
         <v>110</v>
       </c>
@@ -16744,7 +16710,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="12" t="s">
         <v>110</v>
       </c>
@@ -16764,7 +16730,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="12" t="s">
         <v>110</v>
       </c>
@@ -16784,7 +16750,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="12" t="s">
         <v>110</v>
       </c>
@@ -16804,7 +16770,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="12" t="s">
         <v>110</v>
       </c>
@@ -16824,7 +16790,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="12" t="s">
         <v>110</v>
       </c>
@@ -16844,15 +16810,15 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="12" t="s">
+    <row r="344" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>1089</v>
+        <v>615</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>1090</v>
+        <v>618</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>277</v>
@@ -16863,34 +16829,37 @@
       <c r="F344" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G344" s="9" t="s">
+      <c r="G344" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="27" t="s">
+    <row r="345" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="C345" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="D345" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E345" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F345" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="G345" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C345" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D345" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E345" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F345" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G345" s="11" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H345" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="12" t="s">
         <v>110</v>
       </c>
@@ -16909,11 +16878,11 @@
       <c r="F346" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G346" s="9" t="s">
+      <c r="G346" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="27" t="s">
         <v>110</v>
       </c>
@@ -16932,15 +16901,15 @@
       <c r="F347" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G347" s="9" t="s">
+      <c r="G347" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B348" s="42" t="s">
+      <c r="B348" s="13" t="s">
         <v>1189</v>
       </c>
       <c r="C348" s="16" t="s">
@@ -16953,12 +16922,11 @@
       <c r="F348" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G348" s="11"/>
       <c r="H348" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>90</v>
       </c>
@@ -16975,9 +16943,8 @@
       <c r="F349" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G349" s="11"/>
-    </row>
-    <row r="350" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="12" t="s">
         <v>90</v>
       </c>
@@ -16993,15 +16960,16 @@
       <c r="F350" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="9" t="s">
+      <c r="G350" s="9"/>
+    </row>
+    <row r="351" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B351" s="42" t="s">
+      <c r="B351" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="C351" s="95" t="s">
+      <c r="C351" s="16" t="s">
         <v>1237</v>
       </c>
       <c r="D351" s="9" t="s">
@@ -17010,11 +16978,12 @@
       <c r="F351" s="9" t="s">
         <v>339</v>
       </c>
+      <c r="G351" s="9"/>
       <c r="H351" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="12" t="s">
         <v>90</v>
       </c>
@@ -17030,8 +16999,9 @@
       <c r="F352" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="353" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G352" s="9"/>
+    </row>
+    <row r="353" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>90</v>
       </c>
@@ -17046,9 +17016,8 @@
       </c>
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
-      <c r="G353" s="11"/>
-    </row>
-    <row r="354" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>90</v>
       </c>
@@ -17069,73 +17038,78 @@
         <v>1238</v>
       </c>
       <c r="H354" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B355" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C355" s="102" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F355" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G355" s="9"/>
+      <c r="H355" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B356" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C356" s="101" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F356" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G356" s="9"/>
+      <c r="H356" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B357" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C355" s="16" t="s">
+      <c r="C357" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="D355" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E355" s="11"/>
-      <c r="F355" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G355" s="11"/>
-    </row>
-    <row r="356" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B356" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D356" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E356" s="11"/>
-      <c r="F356" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G356" s="11"/>
-    </row>
-    <row r="357" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B357" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="D357" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F357" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="358" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D357" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E357" s="11"/>
+      <c r="F357" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="358" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C358" s="16" t="s">
-        <v>276</v>
+        <v>699</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="D358" s="11" t="s">
         <v>277</v>
@@ -17144,36 +17118,34 @@
       <c r="F358" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G358" s="11"/>
-    </row>
-    <row r="359" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="7" t="s">
+    </row>
+    <row r="359" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>944</v>
+        <v>701</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>945</v>
-      </c>
-      <c r="D359" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E359" s="11"/>
-      <c r="F359" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G359" s="11"/>
-    </row>
-    <row r="360" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+      <c r="D359" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F359" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G359" s="9"/>
+    </row>
+    <row r="360" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D360" s="11" t="s">
         <v>277</v>
@@ -17182,28 +17154,29 @@
       <c r="F360" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G360" s="11"/>
-    </row>
-    <row r="361" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="7" t="s">
+    </row>
+    <row r="361" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C361" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D361" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E361" s="11"/>
-      <c r="F361" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G361" s="11"/>
-    </row>
-    <row r="362" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1214</v>
+      </c>
+      <c r="C361" s="101" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F361" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G361" s="9"/>
+      <c r="H361" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>90</v>
       </c>
@@ -17218,17 +17191,16 @@
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
-      <c r="G362" s="11"/>
-    </row>
-    <row r="363" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C363" s="16" t="s">
-        <v>193</v>
+        <v>944</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>945</v>
       </c>
       <c r="D363" s="11" t="s">
         <v>277</v>
@@ -17237,17 +17209,16 @@
       <c r="F363" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G363" s="11"/>
-    </row>
-    <row r="364" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="D364" s="11" t="s">
         <v>277</v>
@@ -17256,29 +17227,26 @@
       <c r="F364" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G364" s="11"/>
-    </row>
-    <row r="365" spans="1:31" s="102" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="17" t="s">
+    </row>
+    <row r="365" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B365" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C365" s="106" t="s">
-        <v>438</v>
-      </c>
-      <c r="D365" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E365" s="17"/>
-      <c r="F365" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="G365" s="17"/>
-      <c r="H365" s="10">
-        <v>1</v>
-      </c>
+      <c r="B365" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D365" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E365" s="11"/>
+      <c r="F365" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G365" s="11"/>
+      <c r="H365" s="9"/>
       <c r="I365" s="10"/>
       <c r="J365" s="10"/>
       <c r="K365" s="10"/>
@@ -17303,34 +17271,34 @@
       <c r="AD365" s="10"/>
       <c r="AE365" s="10"/>
     </row>
-    <row r="366" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="11" t="s">
+    <row r="366" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B366" s="42" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C366" s="105" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D366" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E366" s="11"/>
-      <c r="F366" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G366" s="11"/>
-    </row>
-    <row r="367" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="11" t="s">
+      <c r="B366" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C366" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="D366" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E366" s="10"/>
+      <c r="F366" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="G366" s="10"/>
+    </row>
+    <row r="367" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B367" s="42" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C367" s="95" t="s">
-        <v>1241</v>
+      <c r="B367" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C367" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D367" s="11" t="s">
         <v>277</v>
@@ -17339,17 +17307,16 @@
       <c r="F367" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G367" s="11"/>
-    </row>
-    <row r="368" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="368" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="D368" s="11" t="s">
         <v>277</v>
@@ -17358,22 +17325,16 @@
       <c r="F368" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G368" s="11" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H368" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>349</v>
+        <v>196</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="D369" s="11" t="s">
         <v>277</v>
@@ -17382,22 +17343,16 @@
       <c r="F369" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G369" s="11" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H369" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>133</v>
+        <v>1240</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>134</v>
+        <v>1241</v>
       </c>
       <c r="D370" s="11" t="s">
         <v>277</v>
@@ -17406,27 +17361,32 @@
       <c r="F370" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G370" s="11"/>
-    </row>
-    <row r="371" spans="1:8" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="12" t="s">
+    </row>
+    <row r="371" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C371" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D371" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F371" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="G371" s="11"/>
-    </row>
-    <row r="372" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D371" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E371" s="11"/>
+      <c r="F371" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G371" s="11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H371" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="61" t="s">
         <v>90</v>
       </c>
@@ -17441,17 +17401,16 @@
       </c>
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
-      <c r="G372" s="11"/>
-    </row>
-    <row r="373" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>707</v>
+        <v>1201</v>
+      </c>
+      <c r="C373" s="102" t="s">
+        <v>1204</v>
       </c>
       <c r="D373" s="9" t="s">
         <v>277</v>
@@ -17459,16 +17418,20 @@
       <c r="F373" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G373" s="9"/>
+      <c r="H373" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D374" s="11" t="s">
         <v>277</v>
@@ -17480,27 +17443,29 @@
       <c r="G374" s="11" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H374" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B375" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="C375" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="D375" s="11">
-        <v>12</v>
+      <c r="B375" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C375" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D375" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="E375" s="11"/>
       <c r="F375" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G375" s="11"/>
-    </row>
-    <row r="376" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="376" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
         <v>90</v>
       </c>
@@ -17515,66 +17480,64 @@
       </c>
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
-      <c r="G376" s="11"/>
-    </row>
-    <row r="377" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="7" t="s">
+    </row>
+    <row r="377" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C377" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="D377" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E377" s="11"/>
-      <c r="F377" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G377" s="11"/>
-    </row>
-    <row r="378" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C377" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D377" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F377" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B378" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="C378" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="D378" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E378" s="11"/>
-      <c r="F378" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G378" s="11"/>
-    </row>
-    <row r="379" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="7" t="s">
+      <c r="B378" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F378" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G378" s="9"/>
+    </row>
+    <row r="379" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>271</v>
+        <v>1191</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D379" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E379" s="11"/>
-      <c r="F379" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G379" s="11"/>
-    </row>
-    <row r="380" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1194</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F379" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G379" s="9"/>
+      <c r="H379" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="61" t="s">
         <v>90</v>
       </c>
@@ -17587,17 +17550,16 @@
       <c r="D380" s="11"/>
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
-      <c r="G380" s="11"/>
-    </row>
-    <row r="381" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>145</v>
+        <v>352</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D381" s="11" t="s">
         <v>277</v>
@@ -17606,34 +17568,37 @@
       <c r="F381" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G381" s="11"/>
-    </row>
-    <row r="382" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="12" t="s">
+      <c r="G381" s="11" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B382" s="13" t="s">
-        <v>350</v>
+      <c r="B382" s="14" t="s">
+        <v>741</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D382" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F382" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+      <c r="D382" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E382" s="11"/>
+      <c r="F382" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>430</v>
+        <v>275</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="D383" s="11" t="s">
         <v>277</v>
@@ -17642,57 +17607,59 @@
       <c r="F383" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G383" s="11" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H383" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="12" t="s">
+    </row>
+    <row r="384" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B384" s="13" t="s">
-        <v>771</v>
-      </c>
-      <c r="C384" s="16" t="s">
-        <v>772</v>
-      </c>
-      <c r="D384" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F384" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="7" t="s">
+      <c r="B384" s="49" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C384" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="D384" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E384" s="10"/>
+      <c r="F384" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="G384" s="10"/>
+      <c r="H384" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>943</v>
-      </c>
-      <c r="C385" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="D385" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E385" s="11"/>
-      <c r="F385" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1193</v>
+      </c>
+      <c r="C385" s="16" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F385" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G385" s="9"/>
+      <c r="H385" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B386" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>130</v>
+      <c r="B386" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C386" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="D386" s="11" t="s">
         <v>277</v>
@@ -17701,40 +17668,37 @@
       <c r="F386" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G386" s="11" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H386" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="387" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B387" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C387" s="7">
-        <v>80644</v>
+      <c r="B387" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C387" s="103">
+        <v>77881</v>
       </c>
       <c r="D387" s="9" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F387" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G387" s="11"/>
-    </row>
-    <row r="388" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G387" s="9"/>
+      <c r="H387" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="C388" s="7">
-        <v>78960</v>
+        <v>80644</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>293</v>
@@ -17742,29 +17706,25 @@
       <c r="F388" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G388" s="11"/>
-    </row>
-    <row r="389" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="8" t="s">
+    </row>
+    <row r="389" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B389" s="19" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C389" s="101">
-        <v>77881</v>
+      <c r="B389" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C389" s="7">
+        <v>78960</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F389" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="H389" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="390" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="12" t="s">
         <v>106</v>
       </c>
@@ -17780,9 +17740,8 @@
       <c r="F390" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G390" s="11"/>
-    </row>
-    <row r="391" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="391" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="12" t="s">
         <v>106</v>
       </c>
@@ -17798,17 +17757,16 @@
       <c r="F391" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G391" s="11"/>
-    </row>
-    <row r="392" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="392" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B392" s="13" t="s">
-        <v>927</v>
-      </c>
-      <c r="C392" s="12" t="s">
-        <v>190</v>
+      <c r="B392" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C392" s="95" t="s">
+        <v>1170</v>
       </c>
       <c r="D392" s="11" t="s">
         <v>277</v>
@@ -17817,9 +17775,11 @@
       <c r="F392" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G392" s="11"/>
-    </row>
-    <row r="393" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H392" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
         <v>106</v>
       </c>
@@ -17840,7 +17800,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>106</v>
       </c>
@@ -17861,7 +17821,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>106</v>
       </c>
@@ -17882,7 +17842,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
         <v>106</v>
       </c>
@@ -17902,7 +17862,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
         <v>106</v>
       </c>
@@ -17919,58 +17879,53 @@
       <c r="F397" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G397" s="11"/>
-    </row>
-    <row r="398" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="49" t="s">
+    </row>
+    <row r="398" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B398" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C398" s="49" t="s">
+      <c r="B398" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="D398" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F398" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G398" s="9"/>
+    </row>
+    <row r="399" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B399" s="49" t="s">
+        <v>932</v>
+      </c>
+      <c r="C399" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="D398" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E398" s="10"/>
-      <c r="F398" s="10" t="s">
+      <c r="D399" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E399" s="10"/>
+      <c r="F399" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="G398" s="10"/>
-    </row>
-    <row r="399" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B399" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="C399" s="95" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D399" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E399" s="11"/>
-      <c r="F399" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G399" s="11"/>
-      <c r="H399" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G399" s="10"/>
+    </row>
+    <row r="400" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="C400" s="7" t="s">
-        <v>697</v>
+        <v>705</v>
+      </c>
+      <c r="C400" s="16" t="s">
+        <v>706</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>277</v>
@@ -17978,27 +17933,27 @@
       <c r="F400" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="49" t="s">
+      <c r="G400" s="9"/>
+    </row>
+    <row r="401" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B401" s="49" t="s">
-        <v>932</v>
-      </c>
-      <c r="C401" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="D401" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E401" s="10"/>
-      <c r="F401" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="G401" s="10"/>
-    </row>
-    <row r="402" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D401" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F401" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G401" s="9"/>
+    </row>
+    <row r="402" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="12" t="s">
         <v>106</v>
       </c>
@@ -18014,9 +17969,8 @@
       <c r="F402" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G402" s="11"/>
-    </row>
-    <row r="403" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="403" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="12" t="s">
         <v>106</v>
       </c>
@@ -18032,8 +17986,9 @@
       <c r="F403" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G403" s="9"/>
+    </row>
+    <row r="404" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="12" t="s">
         <v>106</v>
       </c>
@@ -18049,8 +18004,9 @@
       <c r="F404" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G404" s="9"/>
+    </row>
+    <row r="405" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="12" t="s">
         <v>106</v>
       </c>
@@ -18066,8 +18022,9 @@
       <c r="F405" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G405" s="9"/>
+    </row>
+    <row r="406" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="12" t="s">
         <v>106</v>
       </c>
@@ -18083,8 +18040,9 @@
       <c r="F406" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G406" s="9"/>
+    </row>
+    <row r="407" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="12" t="s">
         <v>106</v>
       </c>
@@ -18100,8 +18058,9 @@
       <c r="F407" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G407" s="9"/>
+    </row>
+    <row r="408" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="12" t="s">
         <v>106</v>
       </c>
@@ -18124,7 +18083,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="12" t="s">
         <v>106</v>
       </c>
@@ -18147,7 +18106,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="12" t="s">
         <v>106</v>
       </c>
@@ -18170,41 +18129,43 @@
         <v>496</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="12" t="s">
+    <row r="411" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>705</v>
+        <v>266</v>
       </c>
       <c r="C411" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="D411" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F411" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D411" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E411" s="11"/>
+      <c r="F411" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B412" s="13" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C412" s="7" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D412" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F412" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C412" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D412" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E412" s="11"/>
+      <c r="F412" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="12" t="s">
         <v>106</v>
       </c>
@@ -18220,8 +18181,9 @@
       <c r="F413" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G413" s="9"/>
+    </row>
+    <row r="414" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="12" t="s">
         <v>106</v>
       </c>
@@ -18237,46 +18199,48 @@
       <c r="F414" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="7" t="s">
+      <c r="G414" s="9"/>
+    </row>
+    <row r="415" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>266</v>
+        <v>773</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="D415" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E415" s="11"/>
-      <c r="F415" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G415" s="11"/>
-    </row>
-    <row r="416" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F415" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G415" s="9"/>
+    </row>
+    <row r="416" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B416" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="C416" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D416" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E416" s="11"/>
-      <c r="F416" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G416" s="11"/>
-    </row>
-    <row r="417" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B416" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C416" s="102" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F416" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G416" s="9"/>
+      <c r="H416" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="12" t="s">
         <v>106</v>
       </c>
@@ -18296,15 +18260,15 @@
         <v>679</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="C418" s="16" t="s">
-        <v>774</v>
+        <v>701</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>700</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>277</v>
@@ -18312,8 +18276,9 @@
       <c r="F418" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G418" s="9"/>
+    </row>
+    <row r="419" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="12" t="s">
         <v>106</v>
       </c>
@@ -18336,7 +18301,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="12" t="s">
         <v>106</v>
       </c>
@@ -18359,7 +18324,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="12" t="s">
         <v>106</v>
       </c>
@@ -18382,7 +18347,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="12" t="s">
         <v>106</v>
       </c>
@@ -18405,7 +18370,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="12" t="s">
         <v>106</v>
       </c>
@@ -18428,7 +18393,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="12" t="s">
         <v>106</v>
       </c>
@@ -18451,7 +18416,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="12" t="s">
         <v>106</v>
       </c>
@@ -18474,27 +18439,24 @@
         <v>496</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="8" t="s">
+    <row r="426" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B426" s="19" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C426" s="99" t="s">
-        <v>1213</v>
+      <c r="B426" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>710</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F426" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="H426" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F426" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="12" t="s">
         <v>106</v>
       </c>
@@ -18514,7 +18476,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="12" t="s">
         <v>106</v>
       </c>
@@ -18537,59 +18499,61 @@
         <v>496</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="12" t="s">
+    <row r="429" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="C429" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="D429" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F429" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C429" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D429" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E429" s="11"/>
+      <c r="F429" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="C430" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="D430" s="9" t="s">
-        <v>277</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C430" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E430" s="11"/>
       <c r="F430" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G430" s="11"/>
-    </row>
-    <row r="431" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="431" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="24" t="s">
         <v>106</v>
       </c>
       <c r="B431" s="24" t="s">
         <v>1218</v>
       </c>
-      <c r="C431" s="104" t="s">
+      <c r="C431" s="100" t="s">
         <v>1219</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>277</v>
       </c>
+      <c r="G431" s="9"/>
       <c r="H431" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
         <v>106</v>
       </c>
@@ -18606,8 +18570,9 @@
       <c r="F432" s="11" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G432" s="9"/>
+    </row>
+    <row r="433" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="12" t="s">
         <v>106</v>
       </c>
@@ -18627,7 +18592,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
         <v>106</v>
       </c>
@@ -18650,7 +18615,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="12" t="s">
         <v>106</v>
       </c>
@@ -18673,7 +18638,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="12" t="s">
         <v>106</v>
       </c>
@@ -18696,15 +18661,15 @@
         <v>496</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C437" s="12" t="s">
-        <v>125</v>
+        <v>1176</v>
+      </c>
+      <c r="C437" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="D437" s="11" t="s">
         <v>277</v>
@@ -18713,17 +18678,19 @@
       <c r="F437" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G437" s="11"/>
-    </row>
-    <row r="438" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H437" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>5</v>
+        <v>286</v>
       </c>
       <c r="C438" s="18" t="s">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="D438" s="11" t="s">
         <v>277</v>
@@ -18732,9 +18699,8 @@
       <c r="F438" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G438" s="11"/>
-    </row>
-    <row r="439" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="439" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="12" t="s">
         <v>106</v>
       </c>
@@ -18755,29 +18721,28 @@
         <v>760</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="7" t="s">
+    <row r="440" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B440" s="42" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C440" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D440" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E440" s="11"/>
-      <c r="F440" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G440" s="11"/>
+      <c r="B440" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D440" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F440" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G440" s="9"/>
       <c r="H440" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="11" t="s">
         <v>106</v>
       </c>
@@ -18790,28 +18755,29 @@
       <c r="D441" s="11"/>
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
-      <c r="G441" s="11"/>
-    </row>
-    <row r="442" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="7" t="s">
+    </row>
+    <row r="442" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C442" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D442" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E442" s="11"/>
-      <c r="F442" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G442" s="11"/>
-    </row>
-    <row r="443" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1209</v>
+      </c>
+      <c r="C442" s="102" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D442" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F442" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G442" s="9"/>
+      <c r="H442" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="12" t="s">
         <v>106</v>
       </c>
@@ -18834,7 +18800,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="12" t="s">
         <v>106</v>
       </c>
@@ -18857,47 +18823,48 @@
         <v>496</v>
       </c>
     </row>
-    <row r="445" spans="1:8" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="8" t="s">
+    <row r="445" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B445" s="19" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C445" s="6" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D445" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F445" s="9" t="s">
-        <v>339</v>
-      </c>
+      <c r="B445" s="49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C445" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="D445" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E445" s="10"/>
+      <c r="F445" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="G445" s="10"/>
       <c r="H445" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:8" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="8" t="s">
+    <row r="446" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B446" s="19" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C446" s="99" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D446" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F446" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="H446" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C446" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D446" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E446" s="11"/>
+      <c r="F446" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G446" s="11"/>
+    </row>
+    <row r="447" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
         <v>106</v>
       </c>
@@ -18915,7 +18882,7 @@
       </c>
       <c r="G447" s="11"/>
     </row>
-    <row r="448" spans="1:8" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="12" t="s">
         <v>106</v>
       </c>
@@ -18938,7 +18905,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="449" spans="1:31" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:31" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="12" t="s">
         <v>106</v>
       </c>
@@ -18961,7 +18928,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="450" spans="1:31" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:31" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="12" t="s">
         <v>106</v>
       </c>
@@ -18984,7 +18951,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="451" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
         <v>106</v>
       </c>
@@ -19000,9 +18967,8 @@
       <c r="F451" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G451" s="11"/>
-    </row>
-    <row r="452" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="452" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="12" t="s">
         <v>106</v>
       </c>
@@ -19018,9 +18984,8 @@
       <c r="F452" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G452" s="11"/>
-    </row>
-    <row r="453" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="453" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="12" t="s">
         <v>106</v>
       </c>
@@ -19036,9 +19001,8 @@
       <c r="F453" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G453" s="11"/>
-    </row>
-    <row r="454" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="454" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="12" t="s">
         <v>106</v>
       </c>
@@ -19054,9 +19018,8 @@
       <c r="F454" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G454" s="11"/>
-    </row>
-    <row r="455" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="455" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="12" t="s">
         <v>106</v>
       </c>
@@ -19072,8 +19035,9 @@
       <c r="F455" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="456" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G455" s="9"/>
+    </row>
+    <row r="456" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="12" t="s">
         <v>106</v>
       </c>
@@ -19093,7 +19057,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="457" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="12" t="s">
         <v>106</v>
       </c>
@@ -19113,29 +19077,29 @@
         <v>679</v>
       </c>
     </row>
-    <row r="458" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="102" t="s">
+    <row r="458" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B458" s="102" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C458" s="103" t="s">
+      <c r="B458" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="C458" s="104" t="s">
         <v>438</v>
       </c>
-      <c r="D458" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E458" s="10"/>
-      <c r="F458" s="10" t="s">
+      <c r="D458" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E458" s="17"/>
+      <c r="F458" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="G458" s="10"/>
-      <c r="H458" s="9">
+      <c r="G458" s="17"/>
+      <c r="H458" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="7" t="s">
         <v>106</v>
       </c>
@@ -19152,8 +19116,9 @@
       <c r="F459" s="11" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="460" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G459" s="9"/>
+    </row>
+    <row r="460" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="7" t="s">
         <v>106</v>
       </c>
@@ -19170,27 +19135,31 @@
       <c r="F460" s="11" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="461" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="7" t="s">
+      <c r="G460" s="9"/>
+    </row>
+    <row r="461" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B461" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C461" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D461" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E461" s="11"/>
-      <c r="F461" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G461" s="11"/>
-    </row>
-    <row r="462" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="C461" s="104" t="s">
+        <v>438</v>
+      </c>
+      <c r="D461" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E461" s="17"/>
+      <c r="F461" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="G461" s="17"/>
+      <c r="H461" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="12" t="s">
         <v>106</v>
       </c>
@@ -19211,7 +19180,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="463" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>106</v>
       </c>
@@ -19228,27 +19197,26 @@
       <c r="F463" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G463" s="11"/>
-    </row>
-    <row r="464" spans="1:31" s="102" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="17" t="s">
+    </row>
+    <row r="464" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B464" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C464" s="106" t="s">
-        <v>438</v>
-      </c>
-      <c r="D464" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E464" s="17"/>
-      <c r="F464" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="G464" s="17"/>
-      <c r="H464" s="10">
+      <c r="B464" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="D464" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E464" s="9"/>
+      <c r="F464" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G464" s="9"/>
+      <c r="H464" s="9">
         <v>1</v>
       </c>
       <c r="I464" s="10"/>
@@ -19275,29 +19243,28 @@
       <c r="AD464" s="10"/>
       <c r="AE464" s="10"/>
     </row>
-    <row r="465" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="11" t="s">
+    <row r="465" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B465" s="42" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C465" s="105" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D465" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E465" s="11"/>
-      <c r="F465" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G465" s="11"/>
+      <c r="B465" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C465" s="101" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D465" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F465" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G465" s="9"/>
       <c r="H465" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="12" t="s">
         <v>106</v>
       </c>
@@ -19320,7 +19287,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="7" t="s">
         <v>106</v>
       </c>
@@ -19341,7 +19308,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="12" t="s">
         <v>106</v>
       </c>
@@ -19364,27 +19331,26 @@
         <v>496</v>
       </c>
     </row>
-    <row r="469" spans="1:8" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="12" t="s">
+    <row r="469" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B469" s="42" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C469" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="D469" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F469" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="H469" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C469" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D469" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E469" s="11"/>
+      <c r="F469" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G469" s="11"/>
+    </row>
+    <row r="470" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="12" t="s">
         <v>106</v>
       </c>
@@ -19407,7 +19373,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="12" t="s">
         <v>106</v>
       </c>
@@ -19430,7 +19396,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
         <v>106</v>
       </c>
@@ -19453,27 +19419,25 @@
         <v>496</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="8" t="s">
+    <row r="473" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B473" s="19" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C473" s="100" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D473" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F473" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="H473" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C473" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D473" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E473" s="11"/>
+      <c r="F473" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
         <v>106</v>
       </c>
@@ -19496,7 +19460,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
         <v>106</v>
       </c>
@@ -19517,7 +19481,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="12" t="s">
         <v>106</v>
       </c>
@@ -19538,7 +19502,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="12" t="s">
         <v>106</v>
       </c>
@@ -19561,7 +19525,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="12" t="s">
         <v>106</v>
       </c>
@@ -19582,15 +19546,15 @@
         <v>760</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>285</v>
+        <v>1242</v>
       </c>
       <c r="C479" s="18" t="s">
-        <v>284</v>
+        <v>1241</v>
       </c>
       <c r="D479" s="11" t="s">
         <v>277</v>
@@ -19599,9 +19563,8 @@
       <c r="F479" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G479" s="11"/>
-    </row>
-    <row r="480" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="480" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="12" t="s">
         <v>106</v>
       </c>
@@ -19621,7 +19584,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="12" t="s">
         <v>106</v>
       </c>
@@ -19642,7 +19605,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="12" t="s">
         <v>106</v>
       </c>
@@ -19665,15 +19628,15 @@
         <v>496</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B483" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C483" s="12" t="s">
-        <v>119</v>
+        <v>1242</v>
+      </c>
+      <c r="C483" s="18" t="s">
+        <v>1241</v>
       </c>
       <c r="D483" s="11" t="s">
         <v>277</v>
@@ -19682,9 +19645,11 @@
       <c r="F483" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G483" s="11"/>
-    </row>
-    <row r="484" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H483" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="12" t="s">
         <v>106</v>
       </c>
@@ -19707,7 +19672,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="12" t="s">
         <v>106</v>
       </c>
@@ -19723,8 +19688,9 @@
       <c r="F485" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="486" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G485" s="9"/>
+    </row>
+    <row r="486" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
         <v>106</v>
       </c>
@@ -19741,16 +19707,15 @@
       <c r="F486" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G486" s="11"/>
-    </row>
-    <row r="487" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="8" t="s">
+    </row>
+    <row r="487" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B487" s="19" t="s">
+      <c r="B487" s="13" t="s">
         <v>1216</v>
       </c>
-      <c r="C487" s="99" t="s">
+      <c r="C487" s="102" t="s">
         <v>1217</v>
       </c>
       <c r="D487" s="9" t="s">
@@ -19759,11 +19724,12 @@
       <c r="F487" s="9" t="s">
         <v>339</v>
       </c>
+      <c r="G487" s="9"/>
       <c r="H487" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
         <v>106</v>
       </c>
@@ -19780,9 +19746,8 @@
       <c r="F488" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G488" s="11"/>
-    </row>
-    <row r="489" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="489" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="12" t="s">
         <v>106</v>
       </c>
@@ -19798,8 +19763,9 @@
       <c r="F489" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="490" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G489" s="9"/>
+    </row>
+    <row r="490" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="7" t="s">
         <v>106</v>
       </c>
@@ -19816,9 +19782,8 @@
       <c r="F490" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G490" s="11"/>
-    </row>
-    <row r="491" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="491" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="12" t="s">
         <v>106</v>
       </c>
@@ -19839,7 +19804,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="12" t="s">
         <v>106</v>
       </c>
@@ -19855,8 +19820,9 @@
       <c r="F492" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="493" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G492" s="9"/>
+    </row>
+    <row r="493" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>163</v>
       </c>
@@ -19879,7 +19845,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="12" t="s">
         <v>163</v>
       </c>
@@ -19898,8 +19864,9 @@
       <c r="F494" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="495" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G494" s="9"/>
+    </row>
+    <row r="495" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="7" t="s">
         <v>163</v>
       </c>
@@ -19922,7 +19889,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="12" t="s">
         <v>163</v>
       </c>
@@ -19941,8 +19908,9 @@
       <c r="F496" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="497" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G496" s="9"/>
+    </row>
+    <row r="497" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="7" t="s">
         <v>163</v>
       </c>
@@ -19965,7 +19933,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
         <v>163</v>
       </c>
@@ -19988,7 +19956,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>163</v>
       </c>
@@ -20011,7 +19979,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="500" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
         <v>163</v>
       </c>
@@ -20034,7 +20002,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="501" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
         <v>163</v>
       </c>
@@ -20057,7 +20025,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="502" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="7" t="s">
         <v>163</v>
       </c>
@@ -20080,7 +20048,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="503" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
         <v>163</v>
       </c>
@@ -20103,7 +20071,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="504" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="12" t="s">
         <v>163</v>
       </c>
@@ -20122,8 +20090,9 @@
       <c r="F504" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="505" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G504" s="9"/>
+    </row>
+    <row r="505" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
         <v>163</v>
       </c>
@@ -20140,9 +20109,8 @@
       <c r="F505" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G505" s="11"/>
-    </row>
-    <row r="506" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="506" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
         <v>163</v>
       </c>
@@ -20159,9 +20127,8 @@
       <c r="F506" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G506" s="11"/>
-    </row>
-    <row r="507" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="507" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="51" t="s">
         <v>163</v>
       </c>
@@ -20178,8 +20145,9 @@
       <c r="F507" s="10" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="508" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G507" s="9"/>
+    </row>
+    <row r="508" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="12" t="s">
         <v>163</v>
       </c>
@@ -20198,8 +20166,9 @@
       <c r="F508" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="509" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G508" s="9"/>
+    </row>
+    <row r="509" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
         <v>163</v>
       </c>
@@ -20216,27 +20185,26 @@
       <c r="F509" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G509" s="11"/>
-    </row>
-    <row r="510" spans="1:31" s="6" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="12" t="s">
+    </row>
+    <row r="510" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A510" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B510" s="13" t="s">
-        <v>678</v>
-      </c>
-      <c r="C510" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="D510" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E510" s="9"/>
-      <c r="F510" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="G510" s="9"/>
-      <c r="H510" s="11"/>
+        <v>271</v>
+      </c>
+      <c r="C510" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D510" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E510" s="11"/>
+      <c r="F510" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G510" s="11"/>
+      <c r="H510" s="9"/>
       <c r="I510" s="11"/>
       <c r="J510" s="11"/>
       <c r="K510" s="11"/>
@@ -20261,47 +20229,44 @@
       <c r="AD510" s="11"/>
       <c r="AE510" s="11"/>
     </row>
-    <row r="511" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A511" s="8" t="s">
+    <row r="511" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B511" s="19" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C511" s="98" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D511" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F511" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="H511" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="8" t="s">
+      <c r="B511" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C511" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D511" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E511" s="11"/>
+      <c r="F511" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="512" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B512" s="19" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C512" s="98" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D512" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F512" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="H512" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:31" s="102" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="C512" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D512" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E512" s="11"/>
+      <c r="F512" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G512" s="9"/>
+    </row>
+    <row r="513" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="49" t="s">
         <v>106</v>
       </c>
@@ -20344,14 +20309,14 @@
       <c r="AD513" s="10"/>
       <c r="AE513" s="10"/>
     </row>
-    <row r="514" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A514" s="8" t="s">
+    <row r="514" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B514" s="19" t="s">
+      <c r="B514" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C514" s="6" t="s">
+      <c r="C514" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D514" s="9" t="s">
@@ -20367,14 +20332,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="8" t="s">
+    <row r="515" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B515" s="19" t="s">
+      <c r="B515" s="13" t="s">
         <v>1195</v>
       </c>
-      <c r="C515" s="6" t="s">
+      <c r="C515" s="7" t="s">
         <v>1197</v>
       </c>
       <c r="D515" s="9" t="s">
@@ -20390,7 +20355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:31" s="102" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="7" t="s">
         <v>106</v>
       </c>
@@ -20433,14 +20398,14 @@
       <c r="AD516" s="10"/>
       <c r="AE516" s="10"/>
     </row>
-    <row r="517" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B517" s="19" t="s">
         <v>1199</v>
       </c>
-      <c r="C517" s="99" t="s">
+      <c r="C517" s="98" t="s">
         <v>1200</v>
       </c>
       <c r="D517" s="9" t="s">
@@ -20456,15 +20421,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="8" t="s">
+    <row r="518" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B518" s="19" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C518" s="99" t="s">
-        <v>1204</v>
+      <c r="B518" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C518" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="D518" s="9" t="s">
         <v>277</v>
@@ -20472,39 +20437,41 @@
       <c r="F518" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="H518" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="8" t="s">
+      <c r="G518" s="9"/>
+    </row>
+    <row r="519" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B519" s="19" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C519" s="100" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D519" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F519" s="9" t="s">
-        <v>339</v>
+      <c r="B519" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C519" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D519" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E519" s="11"/>
+      <c r="F519" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G519" s="11" t="s">
+        <v>1238</v>
       </c>
       <c r="H519" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B520" s="19" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C520" s="99" t="s">
-        <v>1206</v>
+      <c r="B520" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="C520" s="16" t="s">
+        <v>772</v>
       </c>
       <c r="D520" s="9" t="s">
         <v>277</v>
@@ -20512,18 +20479,16 @@
       <c r="F520" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="H520" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G520" s="9"/>
+    </row>
+    <row r="521" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B521" s="42" t="s">
+      <c r="B521" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C521" s="95" t="s">
+      <c r="C521" s="16" t="s">
         <v>1185</v>
       </c>
       <c r="D521" s="11" t="s">
@@ -20533,19 +20498,18 @@
       <c r="F521" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G521" s="11"/>
       <c r="H521" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="8" t="s">
+    <row r="522" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B522" s="19" t="s">
+      <c r="B522" s="13" t="s">
         <v>1221</v>
       </c>
-      <c r="C522" s="98" t="s">
+      <c r="C522" s="16" t="s">
         <v>1222</v>
       </c>
       <c r="D522" s="9" t="s">
@@ -20554,11 +20518,12 @@
       <c r="F522" s="9" t="s">
         <v>339</v>
       </c>
+      <c r="G522" s="9"/>
       <c r="H522" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="7" t="s">
         <v>108</v>
       </c>
@@ -20575,10 +20540,9 @@
       <c r="F523" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G523" s="11"/>
       <c r="H523" s="11"/>
     </row>
-    <row r="524" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="7" t="s">
         <v>106</v>
       </c>
@@ -20595,29 +20559,32 @@
       <c r="F524" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G524" s="11"/>
-    </row>
-    <row r="525" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="8" t="s">
+    </row>
+    <row r="525" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B525" s="19" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C525" s="100" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D525" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F525" s="9" t="s">
-        <v>339</v>
+      <c r="B525" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C525" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D525" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E525" s="11"/>
+      <c r="F525" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G525" s="11" t="s">
+        <v>1238</v>
       </c>
       <c r="H525" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
         <v>106</v>
       </c>
@@ -20634,9 +20601,8 @@
       <c r="F526" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G526" s="11"/>
-    </row>
-    <row r="527" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="527" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="7" t="s">
         <v>106</v>
       </c>
@@ -20653,15 +20619,16 @@
       <c r="F527" s="11" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="528" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A528" s="102" t="s">
+      <c r="G527" s="9"/>
+    </row>
+    <row r="528" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B528" s="102" t="s">
+      <c r="B528" s="49" t="s">
         <v>1198</v>
       </c>
-      <c r="C528" s="103" t="s">
+      <c r="C528" s="50" t="s">
         <v>438</v>
       </c>
       <c r="D528" s="10" t="s">
@@ -20676,7 +20643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="12" t="s">
         <v>108</v>
       </c>
@@ -20692,11 +20659,12 @@
       <c r="F529" s="9" t="s">
         <v>339</v>
       </c>
+      <c r="G529" s="9"/>
       <c r="H529" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
         <v>106</v>
       </c>
@@ -20713,8 +20681,9 @@
       <c r="F530" s="11" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="531" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G530" s="9"/>
+    </row>
+    <row r="531" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="51" t="s">
         <v>106</v>
       </c>
@@ -20731,8 +20700,9 @@
       <c r="F531" s="10" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="532" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G531" s="9"/>
+    </row>
+    <row r="532" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="49" t="s">
         <v>108</v>
       </c>
@@ -20749,9 +20719,10 @@
       <c r="F532" s="10" t="s">
         <v>613</v>
       </c>
+      <c r="G532" s="9"/>
       <c r="H532" s="11"/>
     </row>
-    <row r="533" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
         <v>108</v>
       </c>
@@ -20768,10 +20739,9 @@
       <c r="F533" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G533" s="11"/>
       <c r="H533" s="11"/>
     </row>
-    <row r="534" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="7" t="s">
         <v>108</v>
       </c>
@@ -20788,10 +20758,9 @@
       <c r="F534" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G534" s="11"/>
       <c r="H534" s="11"/>
     </row>
-    <row r="535" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="51" t="s">
         <v>108</v>
       </c>
@@ -20808,29 +20777,28 @@
       <c r="F535" s="10" t="s">
         <v>613</v>
       </c>
+      <c r="G535" s="9"/>
       <c r="H535" s="11"/>
     </row>
-    <row r="536" spans="1:31" s="102" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="102" t="s">
+    <row r="536" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B536" s="102" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C536" s="103" t="s">
-        <v>438</v>
-      </c>
-      <c r="D536" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E536" s="10"/>
-      <c r="F536" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="G536" s="10"/>
-      <c r="H536" s="10">
-        <v>1</v>
-      </c>
+      <c r="B536" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="C536" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="D536" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E536" s="9"/>
+      <c r="F536" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G536" s="9"/>
+      <c r="H536" s="11"/>
       <c r="I536" s="10"/>
       <c r="J536" s="10"/>
       <c r="K536" s="10"/>
@@ -20856,30 +20824,12 @@
       <c r="AE536" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H536" xr:uid="{A93A0E0A-2E98-416E-BA90-6F956555B26D}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Quality"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Accord"/>
-        <filter val="No"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A270:H326">
-      <sortCondition ref="D1:D536"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G459">
+  <autoFilter ref="A1:H536" xr:uid="{A93A0E0A-2E98-416E-BA90-6F956555B26D}"/>
+  <sortState ref="A2:G459">
     <sortCondition ref="B1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C438" r:id="rId1" display="https://learning.aperianglobal.com/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C430" r:id="rId1" display="https://learning.aperianglobal.com/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="C159" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="C89" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="C176" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
@@ -20893,7 +20843,7 @@
     <hyperlink ref="C288" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="C276" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="C102" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="C379" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C510" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
     <hyperlink ref="C97" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="C184" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
@@ -20904,7 +20854,7 @@
     <hyperlink ref="C527" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
     <hyperlink ref="C395" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
     <hyperlink ref="C268" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="C369" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="C374" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
     <hyperlink ref="C505" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
     <hyperlink ref="C506" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
     <hyperlink ref="C96" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
@@ -20914,7 +20864,7 @@
     <hyperlink ref="C293" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="C16" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
     <hyperlink ref="C270" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="C295" r:id="rId36" location="Quality" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="C345" r:id="rId36" location="Quality" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
     <hyperlink ref="C90" r:id="rId37" location="Quality" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="C530" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
     <hyperlink ref="C348" r:id="rId39" location="/" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
@@ -20967,23 +20917,23 @@
     <hyperlink ref="C252" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
     <hyperlink ref="C241" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
     <hyperlink ref="C258" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="C377" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="C416" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="C364" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="C363" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="C358" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="C378" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="C383" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="C412" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="C369" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="C368" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="C360" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="C386" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
     <hyperlink ref="C486" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="C440" r:id="rId96" location="/Actions" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="C360" r:id="rId97" location="/Actions" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="C437" r:id="rId96" location="/Actions" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="C364" r:id="rId97" location="/Actions" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
     <hyperlink ref="C61" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="C415" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="C411" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
     <hyperlink ref="C20" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
     <hyperlink ref="C488" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="C479" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="C442" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="C385" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="C399" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="C469" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="C438" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="C512" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="C392" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
     <hyperlink ref="C475" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
     <hyperlink ref="C467" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
     <hyperlink ref="C516" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
@@ -21085,24 +21035,24 @@
     <hyperlink ref="C243" r:id="rId204" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
     <hyperlink ref="C63" r:id="rId205" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
     <hyperlink ref="C283" r:id="rId206" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
-    <hyperlink ref="C345" r:id="rId207" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="C344" r:id="rId207" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
     <hyperlink ref="C275" r:id="rId208" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
     <hyperlink ref="C273" r:id="rId209" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
     <hyperlink ref="C347" r:id="rId210" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
     <hyperlink ref="C285" r:id="rId211" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
     <hyperlink ref="C294" r:id="rId212" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
-    <hyperlink ref="C305" r:id="rId213" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="C295" r:id="rId213" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
     <hyperlink ref="C346" r:id="rId214" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
-    <hyperlink ref="C318" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
-    <hyperlink ref="C316" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
-    <hyperlink ref="C411" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="C316" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="C309" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="C400" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
     <hyperlink ref="C524" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
     <hyperlink ref="C478" r:id="rId219" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
     <hyperlink ref="C481" r:id="rId220" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
     <hyperlink ref="C439" r:id="rId221" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
     <hyperlink ref="C491" r:id="rId222" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
-    <hyperlink ref="C384" r:id="rId223" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
-    <hyperlink ref="C418" r:id="rId224" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="C520" r:id="rId223" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="C415" r:id="rId224" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
     <hyperlink ref="C485" r:id="rId225" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
     <hyperlink ref="C85" r:id="rId226" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
     <hyperlink ref="C33" r:id="rId227" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
@@ -21137,11 +21087,11 @@
     <hyperlink ref="C409" r:id="rId256" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
     <hyperlink ref="C482" r:id="rId257" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
     <hyperlink ref="C408" r:id="rId258" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
-    <hyperlink ref="C355" r:id="rId259" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
+    <hyperlink ref="C357" r:id="rId259" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
     <hyperlink ref="C354" r:id="rId260" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
     <hyperlink ref="C238" r:id="rId261" display="https://onepppm.web.boeing.com/onepppm/app/documents/show?id=POL-4" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
     <hyperlink ref="C81" r:id="rId262" display="https://onepppm.web.boeing.com/onepppm/app/documents/show?id=POL-4" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
-    <hyperlink ref="C374" r:id="rId263" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
+    <hyperlink ref="C381" r:id="rId263" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
     <hyperlink ref="C55" r:id="rId264" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
     <hyperlink ref="C132" r:id="rId265" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
     <hyperlink ref="C108" r:id="rId266" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
@@ -21173,33 +21123,33 @@
     <hyperlink ref="C339" r:id="rId292" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
     <hyperlink ref="C331" r:id="rId293" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
     <hyperlink ref="C327" r:id="rId294" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
-    <hyperlink ref="C344" r:id="rId295" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
+    <hyperlink ref="C318" r:id="rId295" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
     <hyperlink ref="C284" r:id="rId296" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
-    <hyperlink ref="C309" r:id="rId297" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
+    <hyperlink ref="C305" r:id="rId297" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
     <hyperlink ref="C277" r:id="rId298" location="Quality" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
     <hyperlink ref="C504" r:id="rId299" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
     <hyperlink ref="C508" r:id="rId300" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
     <hyperlink ref="C106" r:id="rId301" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
     <hyperlink ref="C112" r:id="rId302" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
     <hyperlink ref="C57" r:id="rId303" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
-    <hyperlink ref="C512" r:id="rId304" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
-    <hyperlink ref="C511" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
+    <hyperlink ref="C385" r:id="rId304" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
+    <hyperlink ref="C379" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
     <hyperlink ref="C521" display="https://wp-myb-portal.web.boeing.com/myb/myportal/BCA/bcateamleader/Home/!ut/p/z1/04_iUlDg4tKPAFJABpSA0fpReYllmemJJZn5eYk5-hH6kVFm8WYeBiaeBs4Gvu4h5oYGjn7OfmHeZpbGPh5G-uFoCoxDnAwcfSwDLV2dgwwN3I31o4jRb4ADOBoQpx-Pgij8xnvhtcDVDGhBFCEl6Aoww4CQKwpyQ0MjKoM90x0VF" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
     <hyperlink ref="C517" r:id="rId306" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
-    <hyperlink ref="C518" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
-    <hyperlink ref="C519" r:id="rId308" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
-    <hyperlink ref="C520" r:id="rId309" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
-    <hyperlink ref="C473" r:id="rId310" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
-    <hyperlink ref="C446" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
+    <hyperlink ref="C373" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
+    <hyperlink ref="C356" r:id="rId308" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
+    <hyperlink ref="C355" r:id="rId309" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
+    <hyperlink ref="C465" r:id="rId310" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
+    <hyperlink ref="C442" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
     <hyperlink ref="C216" r:id="rId312" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
-    <hyperlink ref="C426" r:id="rId313" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
-    <hyperlink ref="C525" r:id="rId314" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
+    <hyperlink ref="C416" r:id="rId313" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
+    <hyperlink ref="C361" r:id="rId314" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
     <hyperlink ref="C487" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
     <hyperlink ref="C522" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
     <hyperlink ref="C351" r:id="rId317" xr:uid="{23002BF4-89E7-43B5-B7EB-550BE39BEF57}"/>
-    <hyperlink ref="C367" r:id="rId318" xr:uid="{60288901-E914-4B56-82B7-BC8F0D4A8C7A}"/>
-    <hyperlink ref="C465" r:id="rId319" xr:uid="{84519027-A9B8-4370-9EA8-E18DA3DF44BC}"/>
-    <hyperlink ref="C366" r:id="rId320" xr:uid="{005D8CAD-A782-4992-AF43-990ACB8BF00D}"/>
+    <hyperlink ref="C370" r:id="rId318" xr:uid="{60288901-E914-4B56-82B7-BC8F0D4A8C7A}"/>
+    <hyperlink ref="C483" r:id="rId319" xr:uid="{84519027-A9B8-4370-9EA8-E18DA3DF44BC}"/>
+    <hyperlink ref="C479" r:id="rId320" xr:uid="{005D8CAD-A782-4992-AF43-990ACB8BF00D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId321"/>
@@ -21212,41 +21162,41 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -21269,21 +21219,21 @@
       <selection pane="bottomLeft" sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="30" customWidth="1"/>
     <col min="2" max="2" width="14" style="41" customWidth="1"/>
     <col min="3" max="3" width="64" style="19" customWidth="1"/>
-    <col min="4" max="4" width="49.88671875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="30" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="30"/>
+    <col min="4" max="4" width="49.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="30" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>460</v>
       </c>
@@ -21312,7 +21262,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>464</v>
       </c>
@@ -21339,7 +21289,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>464</v>
       </c>
@@ -21366,7 +21316,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>464</v>
       </c>
@@ -21393,7 +21343,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>464</v>
       </c>
@@ -21420,7 +21370,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>464</v>
       </c>
@@ -21447,7 +21397,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>464</v>
       </c>
@@ -21474,7 +21424,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>480</v>
       </c>
@@ -21499,7 +21449,7 @@
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>480</v>
       </c>
@@ -21524,7 +21474,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>480</v>
       </c>
@@ -21549,7 +21499,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>480</v>
       </c>
@@ -21574,7 +21524,7 @@
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>483</v>
       </c>
@@ -21597,7 +21547,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>633</v>
       </c>
@@ -21624,7 +21574,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>633</v>
       </c>
@@ -21651,7 +21601,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>633</v>
       </c>
@@ -21678,7 +21628,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>633</v>
       </c>
@@ -21705,7 +21655,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>633</v>
       </c>
@@ -21732,7 +21682,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>633</v>
       </c>
@@ -21759,7 +21709,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>633</v>
       </c>
@@ -21786,7 +21736,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>633</v>
       </c>
@@ -21813,7 +21763,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="59" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" s="59" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>633</v>
       </c>
@@ -21840,7 +21790,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>633</v>
       </c>
@@ -21867,7 +21817,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>633</v>
       </c>
@@ -21894,7 +21844,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>633</v>
       </c>
@@ -21921,7 +21871,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>633</v>
       </c>
@@ -21948,7 +21898,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>633</v>
       </c>
@@ -21975,7 +21925,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>633</v>
       </c>
@@ -22002,7 +21952,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="59" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>633</v>
       </c>
@@ -22059,7 +22009,7 @@
       <c r="AL28" s="30"/>
       <c r="AM28" s="30"/>
     </row>
-    <row r="29" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>633</v>
       </c>
@@ -22086,7 +22036,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>633</v>
       </c>
@@ -22113,7 +22063,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>633</v>
       </c>
@@ -22140,7 +22090,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>633</v>
       </c>
@@ -22167,7 +22117,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>633</v>
       </c>
@@ -22194,7 +22144,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>633</v>
       </c>
@@ -22221,7 +22171,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>633</v>
       </c>
@@ -22248,7 +22198,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>633</v>
       </c>
@@ -22275,7 +22225,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>633</v>
       </c>
@@ -22302,7 +22252,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>633</v>
       </c>
@@ -22329,7 +22279,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="67">
         <v>43150</v>
@@ -22352,7 +22302,7 @@
       <c r="H39" s="32"/>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="40"/>
       <c r="C40" s="35" t="s">
@@ -22373,7 +22323,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>667</v>
       </c>
@@ -22398,7 +22348,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>667</v>
       </c>
@@ -22425,7 +22375,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="59" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>667</v>
       </c>
@@ -22467,7 +22417,7 @@
       <c r="W43" s="30"/>
       <c r="X43" s="30"/>
     </row>
-    <row r="44" spans="1:24" s="59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>667</v>
       </c>
@@ -22509,7 +22459,7 @@
       <c r="W44" s="30"/>
       <c r="X44" s="30"/>
     </row>
-    <row r="45" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>667</v>
       </c>
@@ -22532,7 +22482,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>667</v>
       </c>
@@ -22559,7 +22509,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>689</v>
       </c>
@@ -22584,7 +22534,7 @@
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" spans="1:24" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" s="59" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>689</v>
       </c>
@@ -22609,7 +22559,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="73" t="s">
         <v>695</v>
       </c>
@@ -22636,7 +22586,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="59" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="59" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="74" t="s">
         <v>1010</v>
       </c>
@@ -22657,7 +22607,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="59" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="59" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
         <v>1012</v>
       </c>
@@ -22678,7 +22628,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="59" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>1014</v>
       </c>
@@ -22703,7 +22653,7 @@
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>1014</v>
       </c>
@@ -22728,7 +22678,7 @@
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" spans="1:9" s="59" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="59" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>1014</v>
       </c>
@@ -22753,7 +22703,7 @@
       <c r="H54" s="35"/>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:9" s="59" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="59" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>1014</v>
       </c>
@@ -22778,7 +22728,7 @@
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:9" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>1014</v>
       </c>
@@ -22803,7 +22753,7 @@
       <c r="H56" s="35"/>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22824,7 +22774,7 @@
       <c r="H57" s="76"/>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22841,7 +22791,7 @@
       <c r="H58" s="76"/>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22858,7 +22808,7 @@
       <c r="H59" s="76"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22875,7 +22825,7 @@
       <c r="H60" s="76"/>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22892,7 +22842,7 @@
       <c r="H61" s="76"/>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22909,7 +22859,7 @@
       <c r="H62" s="76"/>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22932,7 +22882,7 @@
       <c r="H63" s="76"/>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22951,7 +22901,7 @@
       <c r="H64" s="76"/>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22970,7 +22920,7 @@
       <c r="H65" s="76"/>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22987,7 +22937,7 @@
       <c r="H66" s="76"/>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="76" t="s">
         <v>1014</v>
       </c>
@@ -23004,7 +22954,7 @@
       <c r="H67" s="76"/>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="76" t="s">
         <v>1014</v>
       </c>
@@ -23025,7 +22975,7 @@
       <c r="H68" s="76"/>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="76" t="s">
         <v>1014</v>
       </c>
@@ -23044,7 +22994,7 @@
       <c r="H69" s="76"/>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="76" t="s">
         <v>1014</v>
       </c>
@@ -23067,7 +23017,7 @@
       <c r="H70" s="76"/>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="76" t="s">
         <v>1014</v>
       </c>
@@ -23088,7 +23038,7 @@
       <c r="H71" s="76"/>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="76" t="s">
         <v>1014</v>
       </c>
@@ -23109,7 +23059,7 @@
       <c r="H72" s="76"/>
       <c r="I72" s="32"/>
     </row>
-    <row r="73" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="76" t="s">
         <v>1014</v>
       </c>
@@ -23128,7 +23078,7 @@
       <c r="H73" s="76"/>
       <c r="I73" s="32"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="69"/>
       <c r="F74" s="19"/>
@@ -23136,7 +23086,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="69"/>
       <c r="F75" s="19"/>
@@ -23144,7 +23094,7 @@
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="69"/>
       <c r="F76" s="19"/>
@@ -23152,7 +23102,7 @@
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="69"/>
       <c r="F77" s="19"/>
@@ -23160,7 +23110,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="69"/>
       <c r="F78" s="19"/>
@@ -23168,7 +23118,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="69"/>
       <c r="F79" s="19"/>
@@ -23176,7 +23126,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="69"/>
       <c r="F80" s="19"/>
@@ -23184,7 +23134,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="69"/>
       <c r="F81" s="19"/>
@@ -23192,7 +23142,7 @@
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="69"/>
       <c r="F82" s="19"/>
@@ -23200,7 +23150,7 @@
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="69"/>
       <c r="F83" s="19"/>
@@ -23208,7 +23158,7 @@
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="69"/>
       <c r="F84" s="19"/>
@@ -23216,7 +23166,7 @@
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="69"/>
       <c r="F85" s="19"/>
@@ -23224,7 +23174,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="69"/>
       <c r="F86" s="19"/>
@@ -23232,7 +23182,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="69"/>
       <c r="F87" s="19"/>
@@ -23240,7 +23190,7 @@
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="69"/>
       <c r="F88" s="19"/>
@@ -23248,7 +23198,7 @@
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="69"/>
       <c r="F89" s="19"/>
@@ -23256,7 +23206,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="69"/>
       <c r="F90" s="19"/>
@@ -23264,7 +23214,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="69"/>
       <c r="F91" s="19"/>
@@ -23272,7 +23222,7 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="69"/>
       <c r="F92" s="19"/>
@@ -23280,7 +23230,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="69"/>
       <c r="F93" s="19"/>
@@ -23311,18 +23261,18 @@
       <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" customWidth="1"/>
-    <col min="7" max="7" width="34.44140625" style="92" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="92" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1134</v>
       </c>
@@ -23348,7 +23298,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1142</v>
       </c>
@@ -23374,7 +23324,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1142</v>
       </c>
@@ -23400,7 +23350,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1142</v>
       </c>
@@ -23426,7 +23376,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1142</v>
       </c>
@@ -23452,7 +23402,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1142</v>
       </c>
@@ -23478,7 +23428,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1142</v>
       </c>
@@ -23504,7 +23454,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1142</v>
       </c>
@@ -23530,7 +23480,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1142</v>
       </c>
@@ -23556,7 +23506,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1142</v>
       </c>
@@ -23582,7 +23532,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1142</v>
       </c>
@@ -23608,7 +23558,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1142</v>
       </c>
@@ -23634,7 +23584,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1142</v>
       </c>
@@ -23662,7 +23612,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H10" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
+    <sortState ref="A2:H13">
       <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
@@ -23685,14 +23635,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="78.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="75" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>463</v>
       </c>
@@ -23703,7 +23653,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="55">
         <v>43143</v>
       </c>
@@ -23714,7 +23664,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="55">
         <v>43144</v>
       </c>
@@ -23725,7 +23675,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="55">
         <v>43144</v>
       </c>
@@ -23736,7 +23686,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <v>43147</v>
       </c>
@@ -23747,7 +23697,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="60">
         <v>43150</v>
       </c>
@@ -23758,7 +23708,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <v>43151</v>
       </c>
@@ -23769,7 +23719,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
         <v>43152</v>
       </c>
@@ -23780,7 +23730,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="60">
         <v>43152</v>
       </c>
@@ -23791,7 +23741,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <v>43152</v>
       </c>
@@ -23802,7 +23752,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <v>43153</v>
       </c>
@@ -23813,7 +23763,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <v>43154</v>
       </c>
@@ -23824,7 +23774,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <v>43154</v>
       </c>
@@ -23835,7 +23785,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <v>43154</v>
       </c>
@@ -23846,7 +23796,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="60">
         <v>43157</v>
       </c>
@@ -23857,7 +23807,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="60">
         <v>43158</v>
       </c>
@@ -23868,7 +23818,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="60">
         <v>43158</v>
       </c>
@@ -23894,15 +23844,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="110.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>916</v>
       </c>
@@ -23916,7 +23866,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>71</v>
       </c>
@@ -23930,7 +23880,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="46" t="s">
         <v>832</v>
@@ -23942,7 +23892,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="46" t="s">
         <v>835</v>
@@ -23954,7 +23904,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="46" t="s">
         <v>838</v>
@@ -23966,7 +23916,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="46" t="s">
         <v>838</v>
@@ -23978,7 +23928,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="46" t="s">
         <v>841</v>
@@ -23990,7 +23940,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="46" t="s">
         <v>844</v>
@@ -24002,7 +23952,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="46" t="s">
         <v>847</v>
@@ -24014,7 +23964,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>73</v>
       </c>
@@ -24028,7 +23978,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="46" t="s">
         <v>851</v>
@@ -24040,7 +23990,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="46" t="s">
         <v>854</v>
@@ -24052,7 +24002,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>55</v>
       </c>
@@ -24066,7 +24016,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="46" t="s">
         <v>860</v>
@@ -24078,7 +24028,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>54</v>
       </c>
@@ -24092,7 +24042,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46" t="s">
         <v>866</v>
@@ -24104,7 +24054,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46" t="s">
         <v>866</v>
@@ -24116,7 +24066,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46" t="s">
         <v>869</v>
@@ -24128,7 +24078,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>70</v>
       </c>
@@ -24142,7 +24092,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46" t="s">
         <v>875</v>
@@ -24154,7 +24104,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46" t="s">
         <v>878</v>
@@ -24166,7 +24116,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46" t="s">
         <v>878</v>
@@ -24178,7 +24128,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46" t="s">
         <v>881</v>
@@ -24190,7 +24140,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46" t="s">
         <v>884</v>
@@ -24202,7 +24152,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46" t="s">
         <v>887</v>
@@ -24214,7 +24164,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46" t="s">
         <v>890</v>
@@ -24226,7 +24176,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="46" t="s">
         <v>893</v>
@@ -24238,7 +24188,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46" t="s">
         <v>896</v>
@@ -24250,7 +24200,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46" t="s">
         <v>899</v>
@@ -24262,7 +24212,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46" t="s">
         <v>901</v>
@@ -24274,7 +24224,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46" t="s">
         <v>904</v>
@@ -24286,7 +24236,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46" t="s">
         <v>904</v>
@@ -24298,7 +24248,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46" t="s">
         <v>907</v>
@@ -24310,7 +24260,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="46" t="s">
         <v>910</v>
@@ -24322,7 +24272,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46" t="s">
         <v>910</v>
@@ -24334,7 +24284,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="46" t="s">
         <v>913</v>
@@ -24346,7 +24296,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="46" t="s">
         <v>913</v>
@@ -24373,16 +24323,16 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="65.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="48"/>
+    <col min="1" max="1" width="12.140625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
         <v>916</v>
       </c>
@@ -24396,7 +24346,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>72</v>
       </c>
@@ -24410,7 +24360,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>74</v>
       </c>
@@ -24424,7 +24374,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>75</v>
       </c>

--- a/Excel/FLL_Website_Content_0306.xlsx
+++ b/Excel/FLL_Website_Content_0306.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\GitHub\FFLSupport\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\FFLSupport\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAB783D-5AB8-4BC5-B396-1528BA407625}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A467A1-1B5A-4FBB-B9BA-C6ED65009C3A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="34245" windowHeight="11940" tabRatio="461" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4512" windowWidth="34248" windowHeight="11940" tabRatio="461" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="13" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Positive Feedback'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Quick_Links!$A$1:$H$10</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="1247">
   <si>
     <t xml:space="preserve">Category </t>
   </si>
@@ -4854,14 +4854,14 @@
       <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -5015,25 +5015,25 @@
   <dimension ref="A1:AE536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B458" sqref="B458"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="66.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="73.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="73.5546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="22" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="31" width="9.140625" style="9"/>
-    <col min="32" max="16384" width="9.140625" style="8"/>
+    <col min="5" max="5" width="8.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="31" width="9.109375" style="9"/>
+    <col min="32" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>
     </row>
-    <row r="3" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="AD3" s="11"/>
       <c r="AE3" s="11"/>
     </row>
-    <row r="4" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
     </row>
-    <row r="5" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
     </row>
-    <row r="6" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
     </row>
-    <row r="7" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -5321,7 +5321,7 @@
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
     </row>
-    <row r="8" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -5364,7 +5364,7 @@
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
     </row>
-    <row r="9" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
     </row>
-    <row r="11" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -5493,7 +5493,7 @@
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
     </row>
-    <row r="12" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
     </row>
-    <row r="13" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>7</v>
       </c>
@@ -5579,7 +5579,7 @@
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
     </row>
-    <row r="14" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -5622,7 +5622,7 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -5669,7 +5669,7 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -5712,7 +5712,7 @@
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
     </row>
-    <row r="17" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -5759,7 +5759,7 @@
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
     </row>
-    <row r="18" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -5802,7 +5802,7 @@
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
     </row>
-    <row r="19" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
     </row>
-    <row r="20" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>107</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>107</v>
       </c>
@@ -5909,7 +5909,7 @@
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
     </row>
-    <row r="22" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>107</v>
       </c>
@@ -5952,7 +5952,7 @@
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
     </row>
-    <row r="23" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>107</v>
       </c>
@@ -5995,7 +5995,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>107</v>
       </c>
@@ -6042,7 +6042,7 @@
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
     </row>
-    <row r="25" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>107</v>
       </c>
@@ -6085,7 +6085,7 @@
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
     </row>
-    <row r="26" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>107</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
     </row>
-    <row r="27" spans="1:31" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>107</v>
       </c>
@@ -6175,7 +6175,7 @@
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
     </row>
-    <row r="28" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>107</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>107</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
     </row>
-    <row r="30" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>107</v>
       </c>
@@ -6286,7 +6286,7 @@
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
     </row>
-    <row r="31" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>107</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>107</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
     </row>
-    <row r="33" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>107</v>
       </c>
@@ -6399,7 +6399,7 @@
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
     </row>
-    <row r="34" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>107</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>107</v>
       </c>
@@ -6459,7 +6459,7 @@
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
     </row>
-    <row r="36" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
     </row>
-    <row r="37" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -6545,7 +6545,7 @@
       <c r="AD37" s="11"/>
       <c r="AE37" s="11"/>
     </row>
-    <row r="38" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>107</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
     </row>
-    <row r="39" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>107</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
     </row>
-    <row r="40" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>107</v>
       </c>
@@ -6674,7 +6674,7 @@
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
     </row>
-    <row r="41" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>107</v>
       </c>
@@ -6717,7 +6717,7 @@
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
     </row>
-    <row r="42" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>107</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>107</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>107</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
     </row>
-    <row r="45" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>107</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>107</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>107</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>107</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>107</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>107</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>107</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>107</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="51" t="s">
         <v>107</v>
       </c>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:31" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>107</v>
       </c>
@@ -7014,7 +7014,7 @@
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
     </row>
-    <row r="56" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>107</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="AD56" s="11"/>
       <c r="AE56" s="11"/>
     </row>
-    <row r="57" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="str">
         <f>+B57</f>
         <v>Create Personal Development Plans</v>
@@ -7101,7 +7101,7 @@
       <c r="AD57" s="11"/>
       <c r="AE57" s="11"/>
     </row>
-    <row r="58" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>3</v>
       </c>
@@ -7144,7 +7144,7 @@
       <c r="AD58" s="11"/>
       <c r="AE58" s="11"/>
     </row>
-    <row r="59" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>3</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="AD59" s="11"/>
       <c r="AE59" s="11"/>
     </row>
-    <row r="60" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
         <v>3</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="AD60" s="11"/>
       <c r="AE60" s="11"/>
     </row>
-    <row r="61" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>3</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
     </row>
-    <row r="62" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>3</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
         <v>3</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
     </row>
-    <row r="64" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>3</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="AD64" s="11"/>
       <c r="AE64" s="11"/>
     </row>
-    <row r="65" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="AD65" s="11"/>
       <c r="AE65" s="11"/>
     </row>
-    <row r="66" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>3</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="AD66" s="11"/>
       <c r="AE66" s="11"/>
     </row>
-    <row r="67" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>3</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="AD67" s="11"/>
       <c r="AE67" s="11"/>
     </row>
-    <row r="68" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>3</v>
       </c>
@@ -7550,7 +7550,7 @@
       <c r="AD68" s="11"/>
       <c r="AE68" s="11"/>
     </row>
-    <row r="69" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>3</v>
       </c>
@@ -7591,7 +7591,7 @@
       <c r="AD69" s="11"/>
       <c r="AE69" s="11"/>
     </row>
-    <row r="70" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>3</v>
       </c>
@@ -7636,7 +7636,7 @@
       <c r="AD70" s="11"/>
       <c r="AE70" s="11"/>
     </row>
-    <row r="71" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>3</v>
       </c>
@@ -7683,7 +7683,7 @@
       <c r="AD71" s="11"/>
       <c r="AE71" s="11"/>
     </row>
-    <row r="72" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
         <v>3</v>
       </c>
@@ -7730,7 +7730,7 @@
       <c r="AD72" s="11"/>
       <c r="AE72" s="11"/>
     </row>
-    <row r="73" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>3</v>
       </c>
@@ -7775,7 +7775,7 @@
       <c r="AD73" s="11"/>
       <c r="AE73" s="11"/>
     </row>
-    <row r="74" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>3</v>
       </c>
@@ -7818,7 +7818,7 @@
       <c r="AD74" s="11"/>
       <c r="AE74" s="11"/>
     </row>
-    <row r="75" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>3</v>
       </c>
@@ -7863,7 +7863,7 @@
       <c r="AD75" s="11"/>
       <c r="AE75" s="11"/>
     </row>
-    <row r="76" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
         <v>3</v>
       </c>
@@ -7910,7 +7910,7 @@
       <c r="AD76" s="11"/>
       <c r="AE76" s="11"/>
     </row>
-    <row r="77" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
         <v>3</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="AD77" s="11"/>
       <c r="AE77" s="11"/>
     </row>
-    <row r="78" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>3</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="AD78" s="11"/>
       <c r="AE78" s="11"/>
     </row>
-    <row r="79" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>3</v>
       </c>
@@ -8043,7 +8043,7 @@
       <c r="AD79" s="11"/>
       <c r="AE79" s="11"/>
     </row>
-    <row r="80" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>3</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="AD80" s="11"/>
       <c r="AE80" s="11"/>
     </row>
-    <row r="81" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>3</v>
       </c>
@@ -8129,7 +8129,7 @@
       <c r="AD81" s="11"/>
       <c r="AE81" s="11"/>
     </row>
-    <row r="82" spans="1:31" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="51" t="s">
         <v>3</v>
       </c>
@@ -8172,7 +8172,7 @@
       <c r="AD82" s="11"/>
       <c r="AE82" s="11"/>
     </row>
-    <row r="83" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="27" t="s">
         <v>3</v>
       </c>
@@ -8219,7 +8219,7 @@
       <c r="AD83" s="11"/>
       <c r="AE83" s="11"/>
     </row>
-    <row r="84" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="27" t="s">
         <v>3</v>
       </c>
@@ -8266,7 +8266,7 @@
       <c r="AD84" s="11"/>
       <c r="AE84" s="11"/>
     </row>
-    <row r="85" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>3</v>
       </c>
@@ -8309,7 +8309,7 @@
       <c r="AD85" s="11"/>
       <c r="AE85" s="11"/>
     </row>
-    <row r="86" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>3</v>
       </c>
@@ -8352,7 +8352,7 @@
       <c r="AD86" s="11"/>
       <c r="AE86" s="11"/>
     </row>
-    <row r="87" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -8397,7 +8397,7 @@
       <c r="AD87" s="11"/>
       <c r="AE87" s="11"/>
     </row>
-    <row r="88" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>3</v>
       </c>
@@ -8440,7 +8440,7 @@
       <c r="AD88" s="11"/>
       <c r="AE88" s="11"/>
     </row>
-    <row r="89" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>111</v>
       </c>
@@ -8483,7 +8483,7 @@
       <c r="AD89" s="11"/>
       <c r="AE89" s="11"/>
     </row>
-    <row r="90" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>111</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="91" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="87" t="s">
         <v>111</v>
       </c>
@@ -8553,7 +8553,7 @@
       <c r="AD91" s="11"/>
       <c r="AE91" s="11"/>
     </row>
-    <row r="92" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="87" t="s">
         <v>111</v>
       </c>
@@ -8600,7 +8600,7 @@
       <c r="AD92" s="11"/>
       <c r="AE92" s="11"/>
     </row>
-    <row r="93" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="87" t="s">
         <v>111</v>
       </c>
@@ -8647,7 +8647,7 @@
       <c r="AD93" s="11"/>
       <c r="AE93" s="11"/>
     </row>
-    <row r="94" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>111</v>
       </c>
@@ -8690,7 +8690,7 @@
       <c r="AD94" s="11"/>
       <c r="AE94" s="11"/>
     </row>
-    <row r="95" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="87" t="s">
         <v>111</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="AD95" s="11"/>
       <c r="AE95" s="11"/>
     </row>
-    <row r="96" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>111</v>
       </c>
@@ -8780,7 +8780,7 @@
       <c r="AD96" s="11"/>
       <c r="AE96" s="11"/>
     </row>
-    <row r="97" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>111</v>
       </c>
@@ -8823,7 +8823,7 @@
       <c r="AD97" s="11"/>
       <c r="AE97" s="11"/>
     </row>
-    <row r="98" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>111</v>
       </c>
@@ -8866,7 +8866,7 @@
       <c r="AD98" s="11"/>
       <c r="AE98" s="11"/>
     </row>
-    <row r="99" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>111</v>
       </c>
@@ -8909,7 +8909,7 @@
       <c r="AD99" s="11"/>
       <c r="AE99" s="11"/>
     </row>
-    <row r="100" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>111</v>
       </c>
@@ -8952,7 +8952,7 @@
       <c r="AD100" s="11"/>
       <c r="AE100" s="11"/>
     </row>
-    <row r="101" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>111</v>
       </c>
@@ -8995,7 +8995,7 @@
       <c r="AD101" s="11"/>
       <c r="AE101" s="11"/>
     </row>
-    <row r="102" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>111</v>
       </c>
@@ -9038,7 +9038,7 @@
       <c r="AD102" s="11"/>
       <c r="AE102" s="11"/>
     </row>
-    <row r="103" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="87" t="s">
         <v>111</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="AD103" s="11"/>
       <c r="AE103" s="11"/>
     </row>
-    <row r="104" spans="1:31" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>111</v>
       </c>
@@ -9128,7 +9128,7 @@
       <c r="AD104" s="11"/>
       <c r="AE104" s="11"/>
     </row>
-    <row r="105" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="87" t="s">
         <v>111</v>
       </c>
@@ -9175,7 +9175,7 @@
       <c r="AD105" s="11"/>
       <c r="AE105" s="11"/>
     </row>
-    <row r="106" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>111</v>
       </c>
@@ -9218,7 +9218,7 @@
       <c r="AD106" s="11"/>
       <c r="AE106" s="11"/>
     </row>
-    <row r="107" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>153</v>
       </c>
@@ -9261,7 +9261,7 @@
       <c r="AD107" s="11"/>
       <c r="AE107" s="11"/>
     </row>
-    <row r="108" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>111</v>
       </c>
@@ -9304,7 +9304,7 @@
       <c r="AD108" s="11"/>
       <c r="AE108" s="11"/>
     </row>
-    <row r="109" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>111</v>
       </c>
@@ -9347,7 +9347,7 @@
       <c r="AD109" s="11"/>
       <c r="AE109" s="11"/>
     </row>
-    <row r="110" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>111</v>
       </c>
@@ -9394,7 +9394,7 @@
       <c r="AD110" s="11"/>
       <c r="AE110" s="11"/>
     </row>
-    <row r="111" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="88" t="s">
         <v>111</v>
       </c>
@@ -9437,7 +9437,7 @@
       <c r="AD111" s="11"/>
       <c r="AE111" s="11"/>
     </row>
-    <row r="112" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>111</v>
       </c>
@@ -9480,7 +9480,7 @@
       <c r="AD112" s="11"/>
       <c r="AE112" s="11"/>
     </row>
-    <row r="113" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>89</v>
       </c>
@@ -9527,7 +9527,7 @@
       <c r="AD113" s="11"/>
       <c r="AE113" s="11"/>
     </row>
-    <row r="114" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>89</v>
       </c>
@@ -9570,7 +9570,7 @@
       <c r="AD114" s="11"/>
       <c r="AE114" s="11"/>
     </row>
-    <row r="115" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>89</v>
       </c>
@@ -9617,7 +9617,7 @@
       <c r="AD115" s="11"/>
       <c r="AE115" s="11"/>
     </row>
-    <row r="116" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>89</v>
       </c>
@@ -9664,7 +9664,7 @@
       <c r="AD116" s="11"/>
       <c r="AE116" s="11"/>
     </row>
-    <row r="117" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="27" t="s">
         <v>89</v>
       </c>
@@ -9711,7 +9711,7 @@
       <c r="AD117" s="11"/>
       <c r="AE117" s="11"/>
     </row>
-    <row r="118" spans="1:31" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>89</v>
       </c>
@@ -9754,7 +9754,7 @@
       <c r="AD118" s="11"/>
       <c r="AE118" s="11"/>
     </row>
-    <row r="119" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>89</v>
       </c>
@@ -9801,7 +9801,7 @@
       <c r="AD119" s="11"/>
       <c r="AE119" s="11"/>
     </row>
-    <row r="120" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>89</v>
       </c>
@@ -9848,7 +9848,7 @@
       <c r="AD120" s="11"/>
       <c r="AE120" s="11"/>
     </row>
-    <row r="121" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
         <v>89</v>
       </c>
@@ -9895,7 +9895,7 @@
       <c r="AD121" s="11"/>
       <c r="AE121" s="11"/>
     </row>
-    <row r="122" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>89</v>
       </c>
@@ -9938,7 +9938,7 @@
       <c r="AD122" s="11"/>
       <c r="AE122" s="11"/>
     </row>
-    <row r="123" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>89</v>
       </c>
@@ -9981,7 +9981,7 @@
       <c r="AD123" s="11"/>
       <c r="AE123" s="11"/>
     </row>
-    <row r="124" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>89</v>
       </c>
@@ -10024,7 +10024,7 @@
       <c r="AD124" s="11"/>
       <c r="AE124" s="11"/>
     </row>
-    <row r="125" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>89</v>
       </c>
@@ -10067,7 +10067,7 @@
       <c r="AD125" s="11"/>
       <c r="AE125" s="11"/>
     </row>
-    <row r="126" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="51" t="s">
         <v>89</v>
       </c>
@@ -10110,7 +10110,7 @@
       <c r="AD126" s="11"/>
       <c r="AE126" s="11"/>
     </row>
-    <row r="127" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>89</v>
       </c>
@@ -10157,7 +10157,7 @@
       <c r="AD127" s="11"/>
       <c r="AE127" s="11"/>
     </row>
-    <row r="128" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>89</v>
       </c>
@@ -10204,7 +10204,7 @@
       <c r="AD128" s="11"/>
       <c r="AE128" s="11"/>
     </row>
-    <row r="129" spans="1:31" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>89</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="AD129" s="11"/>
       <c r="AE129" s="11"/>
     </row>
-    <row r="130" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>89</v>
       </c>
@@ -10294,7 +10294,7 @@
       <c r="AD130" s="11"/>
       <c r="AE130" s="11"/>
     </row>
-    <row r="131" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="27" t="s">
         <v>89</v>
       </c>
@@ -10341,7 +10341,7 @@
       <c r="AD131" s="11"/>
       <c r="AE131" s="11"/>
     </row>
-    <row r="132" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>89</v>
       </c>
@@ -10384,7 +10384,7 @@
       <c r="AD132" s="11"/>
       <c r="AE132" s="11"/>
     </row>
-    <row r="133" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="51" t="s">
         <v>89</v>
       </c>
@@ -10427,7 +10427,7 @@
       <c r="AD133" s="11"/>
       <c r="AE133" s="11"/>
     </row>
-    <row r="134" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>89</v>
       </c>
@@ -10474,7 +10474,7 @@
       <c r="AD134" s="11"/>
       <c r="AE134" s="11"/>
     </row>
-    <row r="135" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>153</v>
       </c>
@@ -10521,7 +10521,7 @@
       <c r="AD135" s="11"/>
       <c r="AE135" s="11"/>
     </row>
-    <row r="136" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>153</v>
       </c>
@@ -10566,7 +10566,7 @@
       <c r="AD136" s="11"/>
       <c r="AE136" s="11"/>
     </row>
-    <row r="137" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>153</v>
       </c>
@@ -10611,7 +10611,7 @@
       <c r="AD137" s="11"/>
       <c r="AE137" s="11"/>
     </row>
-    <row r="138" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>153</v>
       </c>
@@ -10654,7 +10654,7 @@
       <c r="AD138" s="11"/>
       <c r="AE138" s="11"/>
     </row>
-    <row r="139" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>153</v>
       </c>
@@ -10701,7 +10701,7 @@
       <c r="AD139" s="11"/>
       <c r="AE139" s="11"/>
     </row>
-    <row r="140" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>153</v>
       </c>
@@ -10744,7 +10744,7 @@
       <c r="AD140" s="11"/>
       <c r="AE140" s="11"/>
     </row>
-    <row r="141" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>153</v>
       </c>
@@ -10787,7 +10787,7 @@
       <c r="AD141" s="11"/>
       <c r="AE141" s="11"/>
     </row>
-    <row r="142" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>153</v>
       </c>
@@ -10834,7 +10834,7 @@
       <c r="AD142" s="11"/>
       <c r="AE142" s="11"/>
     </row>
-    <row r="143" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>153</v>
       </c>
@@ -10879,7 +10879,7 @@
       <c r="AD143" s="11"/>
       <c r="AE143" s="11"/>
     </row>
-    <row r="144" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>153</v>
       </c>
@@ -10922,7 +10922,7 @@
       <c r="AD144" s="11"/>
       <c r="AE144" s="11"/>
     </row>
-    <row r="145" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="50" t="s">
         <v>153</v>
       </c>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>153</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>153</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>153</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>153</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
         <v>153</v>
       </c>
@@ -11048,7 +11048,7 @@
       </c>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="21" t="s">
         <v>1019</v>
       </c>
@@ -11065,7 +11065,7 @@
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>153</v>
       </c>
@@ -11084,7 +11084,7 @@
       </c>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>153</v>
       </c>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="G153" s="42"/>
     </row>
-    <row r="154" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>153</v>
       </c>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
         <v>1019</v>
       </c>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>153</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>153</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
         <v>153</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>153</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
         <v>153</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="161" spans="1:31" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>1019</v>
       </c>
@@ -11284,7 +11284,7 @@
       <c r="AD161" s="11"/>
       <c r="AE161" s="11"/>
     </row>
-    <row r="162" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>153</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="163" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>153</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="164" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
         <v>153</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="165" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>153</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="166" spans="1:31" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="88" t="s">
         <v>153</v>
       </c>
@@ -11371,7 +11371,7 @@
       </c>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="49" t="s">
         <v>108</v>
       </c>
@@ -11390,7 +11390,7 @@
       </c>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:31" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
         <v>108</v>
       </c>
@@ -11435,7 +11435,7 @@
       <c r="AD168" s="11"/>
       <c r="AE168" s="11"/>
     </row>
-    <row r="169" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>108</v>
       </c>
@@ -11480,7 +11480,7 @@
       <c r="AD169" s="11"/>
       <c r="AE169" s="11"/>
     </row>
-    <row r="170" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
         <v>108</v>
       </c>
@@ -11527,7 +11527,7 @@
       <c r="AD170" s="11"/>
       <c r="AE170" s="11"/>
     </row>
-    <row r="171" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>108</v>
       </c>
@@ -11574,7 +11574,7 @@
       <c r="AD171" s="11"/>
       <c r="AE171" s="11"/>
     </row>
-    <row r="172" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="27" t="s">
         <v>108</v>
       </c>
@@ -11621,7 +11621,7 @@
       <c r="AD172" s="11"/>
       <c r="AE172" s="11"/>
     </row>
-    <row r="173" spans="1:31" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>108</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="174" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>108</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="175" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>108</v>
       </c>
@@ -11703,7 +11703,7 @@
       <c r="AD175" s="11"/>
       <c r="AE175" s="11"/>
     </row>
-    <row r="176" spans="1:31" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="12" t="s">
         <v>108</v>
       </c>
@@ -11748,7 +11748,7 @@
       <c r="AD176" s="11"/>
       <c r="AE176" s="11"/>
     </row>
-    <row r="177" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>108</v>
       </c>
@@ -11791,7 +11791,7 @@
       <c r="AD177" s="11"/>
       <c r="AE177" s="11"/>
     </row>
-    <row r="178" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>108</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="179" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>108</v>
       </c>
@@ -11852,7 +11852,7 @@
       <c r="AD179" s="11"/>
       <c r="AE179" s="11"/>
     </row>
-    <row r="180" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>108</v>
       </c>
@@ -11895,7 +11895,7 @@
       <c r="AD180" s="11"/>
       <c r="AE180" s="11"/>
     </row>
-    <row r="181" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>108</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="182" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
         <v>108</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="183" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>108</v>
       </c>
@@ -11975,7 +11975,7 @@
       <c r="AD183" s="11"/>
       <c r="AE183" s="11"/>
     </row>
-    <row r="184" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
         <v>108</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="AD184" s="11"/>
       <c r="AE184" s="11"/>
     </row>
-    <row r="185" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="50" t="s">
         <v>108</v>
       </c>
@@ -12063,7 +12063,7 @@
       <c r="AD185" s="11"/>
       <c r="AE185" s="11"/>
     </row>
-    <row r="186" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>108</v>
       </c>
@@ -12108,7 +12108,7 @@
       <c r="AD186" s="11"/>
       <c r="AE186" s="11"/>
     </row>
-    <row r="187" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>108</v>
       </c>
@@ -12151,7 +12151,7 @@
       <c r="AD187" s="11"/>
       <c r="AE187" s="11"/>
     </row>
-    <row r="188" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
         <v>108</v>
       </c>
@@ -12194,7 +12194,7 @@
       <c r="AD188" s="11"/>
       <c r="AE188" s="11"/>
     </row>
-    <row r="189" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>108</v>
       </c>
@@ -12237,7 +12237,7 @@
       <c r="AD189" s="11"/>
       <c r="AE189" s="11"/>
     </row>
-    <row r="190" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
         <v>108</v>
       </c>
@@ -12280,7 +12280,7 @@
       <c r="AD190" s="11"/>
       <c r="AE190" s="11"/>
     </row>
-    <row r="191" spans="1:31" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="27" t="s">
         <v>108</v>
       </c>
@@ -12327,7 +12327,7 @@
       <c r="AD191" s="11"/>
       <c r="AE191" s="11"/>
     </row>
-    <row r="192" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
         <v>108</v>
       </c>
@@ -12372,7 +12372,7 @@
       <c r="AD192" s="11"/>
       <c r="AE192" s="11"/>
     </row>
-    <row r="193" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>108</v>
       </c>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="27" t="s">
         <v>108</v>
       </c>
@@ -12437,7 +12437,7 @@
       <c r="AD194" s="11"/>
       <c r="AE194" s="11"/>
     </row>
-    <row r="195" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="49" t="s">
         <v>108</v>
       </c>
@@ -12482,7 +12482,7 @@
       <c r="AD195" s="11"/>
       <c r="AE195" s="11"/>
     </row>
-    <row r="196" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>108</v>
       </c>
@@ -12525,7 +12525,7 @@
       <c r="AD196" s="11"/>
       <c r="AE196" s="11"/>
     </row>
-    <row r="197" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>108</v>
       </c>
@@ -12564,7 +12564,7 @@
       <c r="AD197" s="11"/>
       <c r="AE197" s="11"/>
     </row>
-    <row r="198" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>108</v>
       </c>
@@ -12609,7 +12609,7 @@
       <c r="AD198" s="11"/>
       <c r="AE198" s="11"/>
     </row>
-    <row r="199" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>108</v>
       </c>
@@ -12654,7 +12654,7 @@
       <c r="AD199" s="11"/>
       <c r="AE199" s="11"/>
     </row>
-    <row r="200" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>108</v>
       </c>
@@ -12697,7 +12697,7 @@
       <c r="AD200" s="11"/>
       <c r="AE200" s="11"/>
     </row>
-    <row r="201" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="27" t="s">
         <v>108</v>
       </c>
@@ -12744,7 +12744,7 @@
       <c r="AD201" s="11"/>
       <c r="AE201" s="11"/>
     </row>
-    <row r="202" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
         <v>108</v>
       </c>
@@ -12787,7 +12787,7 @@
       <c r="AD202" s="11"/>
       <c r="AE202" s="11"/>
     </row>
-    <row r="203" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>108</v>
       </c>
@@ -12830,7 +12830,7 @@
       <c r="AD203" s="11"/>
       <c r="AE203" s="11"/>
     </row>
-    <row r="204" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
         <v>108</v>
       </c>
@@ -12875,7 +12875,7 @@
       <c r="AD204" s="11"/>
       <c r="AE204" s="11"/>
     </row>
-    <row r="205" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="61" t="s">
         <v>108</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="206" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="27" t="s">
         <v>108</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="207" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>108</v>
       </c>
@@ -12952,7 +12952,7 @@
       <c r="AD207" s="11"/>
       <c r="AE207" s="11"/>
     </row>
-    <row r="208" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>108</v>
       </c>
@@ -12995,7 +12995,7 @@
       <c r="AD208" s="11"/>
       <c r="AE208" s="11"/>
     </row>
-    <row r="209" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>108</v>
       </c>
@@ -13038,7 +13038,7 @@
       <c r="AD209" s="11"/>
       <c r="AE209" s="11"/>
     </row>
-    <row r="210" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="27" t="s">
         <v>108</v>
       </c>
@@ -13085,7 +13085,7 @@
       <c r="AD210" s="11"/>
       <c r="AE210" s="11"/>
     </row>
-    <row r="211" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="27" t="s">
         <v>108</v>
       </c>
@@ -13132,7 +13132,7 @@
       <c r="AD211" s="11"/>
       <c r="AE211" s="11"/>
     </row>
-    <row r="212" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>108</v>
       </c>
@@ -13179,7 +13179,7 @@
       <c r="AD212" s="11"/>
       <c r="AE212" s="11"/>
     </row>
-    <row r="213" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="s">
         <v>108</v>
       </c>
@@ -13224,7 +13224,7 @@
       <c r="AD213" s="11"/>
       <c r="AE213" s="11"/>
     </row>
-    <row r="214" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
         <v>108</v>
       </c>
@@ -13269,7 +13269,7 @@
       <c r="AD214" s="11"/>
       <c r="AE214" s="11"/>
     </row>
-    <row r="215" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>108</v>
       </c>
@@ -13314,7 +13314,7 @@
       <c r="AD215" s="11"/>
       <c r="AE215" s="11"/>
     </row>
-    <row r="216" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
         <v>108</v>
       </c>
@@ -13359,7 +13359,7 @@
       <c r="AD216" s="11"/>
       <c r="AE216" s="11"/>
     </row>
-    <row r="217" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="61" t="s">
         <v>108</v>
       </c>
@@ -13398,7 +13398,7 @@
       <c r="AD217" s="11"/>
       <c r="AE217" s="11"/>
     </row>
-    <row r="218" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
         <v>108</v>
       </c>
@@ -13443,7 +13443,7 @@
       <c r="AD218" s="11"/>
       <c r="AE218" s="11"/>
     </row>
-    <row r="219" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
         <v>108</v>
       </c>
@@ -13490,7 +13490,7 @@
       <c r="AD219" s="11"/>
       <c r="AE219" s="11"/>
     </row>
-    <row r="220" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
         <v>108</v>
       </c>
@@ -13533,7 +13533,7 @@
       <c r="AD220" s="11"/>
       <c r="AE220" s="11"/>
     </row>
-    <row r="221" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>108</v>
       </c>
@@ -13576,7 +13576,7 @@
       <c r="AD221" s="11"/>
       <c r="AE221" s="11"/>
     </row>
-    <row r="222" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
         <v>108</v>
       </c>
@@ -13619,7 +13619,7 @@
       <c r="AD222" s="11"/>
       <c r="AE222" s="11"/>
     </row>
-    <row r="223" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
         <v>108</v>
       </c>
@@ -13666,7 +13666,7 @@
       <c r="AD223" s="11"/>
       <c r="AE223" s="11"/>
     </row>
-    <row r="224" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
         <v>108</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="61" t="s">
         <v>108</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="226" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="61" t="s">
         <v>108</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="227" spans="1:31" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:31" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="12" t="s">
         <v>108</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="228" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="27" t="s">
         <v>108</v>
       </c>
@@ -13778,7 +13778,7 @@
       <c r="AD228" s="11"/>
       <c r="AE228" s="11"/>
     </row>
-    <row r="229" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
         <v>108</v>
       </c>
@@ -13821,7 +13821,7 @@
       <c r="AD229" s="11"/>
       <c r="AE229" s="11"/>
     </row>
-    <row r="230" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
         <v>108</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="AD230" s="11"/>
       <c r="AE230" s="11"/>
     </row>
-    <row r="231" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>108</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="232" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
         <v>108</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="233" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
         <v>108</v>
       </c>
@@ -13945,7 +13945,7 @@
       <c r="AD233" s="11"/>
       <c r="AE233" s="11"/>
     </row>
-    <row r="234" spans="1:31" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>108</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="235" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
         <v>108</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="236" spans="1:31" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:31" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
         <v>108</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="237" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="27" t="s">
         <v>108</v>
       </c>
@@ -14043,7 +14043,7 @@
       <c r="AD237" s="11"/>
       <c r="AE237" s="11"/>
     </row>
-    <row r="238" spans="1:31" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:31" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
         <v>108</v>
       </c>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:31" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="27" t="s">
         <v>154</v>
       </c>
@@ -14109,7 +14109,7 @@
       <c r="AD239" s="11"/>
       <c r="AE239" s="11"/>
     </row>
-    <row r="240" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="27" t="s">
         <v>154</v>
       </c>
@@ -14156,7 +14156,7 @@
       <c r="AD240" s="11"/>
       <c r="AE240" s="11"/>
     </row>
-    <row r="241" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>154</v>
       </c>
@@ -14199,7 +14199,7 @@
       <c r="AD241" s="11"/>
       <c r="AE241" s="11"/>
     </row>
-    <row r="242" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:31" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="27" t="s">
         <v>154</v>
       </c>
@@ -14246,7 +14246,7 @@
       <c r="AD242" s="11"/>
       <c r="AE242" s="11"/>
     </row>
-    <row r="243" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="27" t="s">
         <v>154</v>
       </c>
@@ -14293,7 +14293,7 @@
       <c r="AD243" s="11"/>
       <c r="AE243" s="11"/>
     </row>
-    <row r="244" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="27" t="s">
         <v>154</v>
       </c>
@@ -14340,7 +14340,7 @@
       <c r="AD244" s="11"/>
       <c r="AE244" s="11"/>
     </row>
-    <row r="245" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="27" t="s">
         <v>154</v>
       </c>
@@ -14387,7 +14387,7 @@
       <c r="AD245" s="11"/>
       <c r="AE245" s="11"/>
     </row>
-    <row r="246" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:31" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
         <v>154</v>
       </c>
@@ -14434,7 +14434,7 @@
       <c r="AD246" s="11"/>
       <c r="AE246" s="11"/>
     </row>
-    <row r="247" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="27" t="s">
         <v>154</v>
       </c>
@@ -14481,7 +14481,7 @@
       <c r="AD247" s="11"/>
       <c r="AE247" s="11"/>
     </row>
-    <row r="248" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
         <v>154</v>
       </c>
@@ -14528,7 +14528,7 @@
       <c r="AD248" s="11"/>
       <c r="AE248" s="11"/>
     </row>
-    <row r="249" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="27" t="s">
         <v>154</v>
       </c>
@@ -14575,7 +14575,7 @@
       <c r="AD249" s="11"/>
       <c r="AE249" s="11"/>
     </row>
-    <row r="250" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:31" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="27" t="s">
         <v>154</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="AD250" s="11"/>
       <c r="AE250" s="11"/>
     </row>
-    <row r="251" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="27" t="s">
         <v>154</v>
       </c>
@@ -14669,7 +14669,7 @@
       <c r="AD251" s="11"/>
       <c r="AE251" s="11"/>
     </row>
-    <row r="252" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
         <v>154</v>
       </c>
@@ -14716,7 +14716,7 @@
       <c r="AD252" s="11"/>
       <c r="AE252" s="11"/>
     </row>
-    <row r="253" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
         <v>154</v>
       </c>
@@ -14759,7 +14759,7 @@
       <c r="AD253" s="11"/>
       <c r="AE253" s="11"/>
     </row>
-    <row r="254" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
         <v>154</v>
       </c>
@@ -14802,7 +14802,7 @@
       <c r="AD254" s="11"/>
       <c r="AE254" s="11"/>
     </row>
-    <row r="255" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="27" t="s">
         <v>154</v>
       </c>
@@ -14849,7 +14849,7 @@
       <c r="AD255" s="11"/>
       <c r="AE255" s="11"/>
     </row>
-    <row r="256" spans="1:31" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:31" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="27" t="s">
         <v>154</v>
       </c>
@@ -14896,7 +14896,7 @@
       <c r="AD256" s="11"/>
       <c r="AE256" s="11"/>
     </row>
-    <row r="257" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
         <v>154</v>
       </c>
@@ -14943,7 +14943,7 @@
       <c r="AD257" s="11"/>
       <c r="AE257" s="11"/>
     </row>
-    <row r="258" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
         <v>154</v>
       </c>
@@ -14986,7 +14986,7 @@
       <c r="AD258" s="11"/>
       <c r="AE258" s="11"/>
     </row>
-    <row r="259" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:31" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>154</v>
       </c>
@@ -15029,7 +15029,7 @@
       <c r="AD259" s="11"/>
       <c r="AE259" s="11"/>
     </row>
-    <row r="260" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A260" s="27" t="s">
         <v>154</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="261" spans="1:31" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:31" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" s="27" t="s">
         <v>154</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="262" spans="1:31" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:31" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" s="27" t="s">
         <v>154</v>
       </c>
@@ -15121,7 +15121,7 @@
       <c r="AC262" s="9"/>
       <c r="AD262" s="9"/>
     </row>
-    <row r="263" spans="1:31" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:31" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" s="27" t="s">
         <v>154</v>
       </c>
@@ -15167,7 +15167,7 @@
       <c r="AC263" s="9"/>
       <c r="AD263" s="9"/>
     </row>
-    <row r="264" spans="1:31" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:31" s="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
         <v>154</v>
       </c>
@@ -15209,7 +15209,7 @@
       <c r="AC264" s="9"/>
       <c r="AD264" s="9"/>
     </row>
-    <row r="265" spans="1:31" s="43" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:31" s="43" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
         <v>154</v>
       </c>
@@ -15251,7 +15251,7 @@
       <c r="AC265" s="11"/>
       <c r="AD265" s="11"/>
     </row>
-    <row r="266" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
         <v>154</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="267" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
         <v>154</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="268" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
         <v>154</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="269" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A269" s="51" t="s">
         <v>154</v>
       </c>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="G269" s="9"/>
     </row>
-    <row r="270" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
         <v>110</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="271" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
         <v>110</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="272" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
         <v>110</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A273" s="27" t="s">
         <v>110</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
         <v>110</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A275" s="27" t="s">
         <v>110</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A276" s="7" t="s">
         <v>110</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A277" s="12" t="s">
         <v>110</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A278" s="49" t="s">
         <v>110</v>
       </c>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="G278" s="9"/>
     </row>
-    <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A279" s="7" t="s">
         <v>110</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
         <v>110</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
         <v>110</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
         <v>110</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="27" t="s">
         <v>110</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="12" t="s">
         <v>110</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="27" t="s">
         <v>110</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
         <v>110</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
         <v>110</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="288" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
         <v>110</v>
       </c>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="G288" s="11"/>
     </row>
-    <row r="289" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
         <v>110</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
         <v>110</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
         <v>110</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="7" t="s">
         <v>110</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="7" t="s">
         <v>110</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="12" t="s">
         <v>110</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="295" spans="1:7" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="12" t="s">
         <v>110</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="49" t="s">
         <v>110</v>
       </c>
@@ -15882,7 +15882,7 @@
       </c>
       <c r="G296" s="9"/>
     </row>
-    <row r="297" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="7" t="s">
         <v>110</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
         <v>110</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7" t="s">
         <v>110</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="7" t="s">
         <v>110</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7" t="s">
         <v>110</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
         <v>110</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7" t="s">
         <v>110</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
         <v>110</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="12" t="s">
         <v>110</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="12" t="s">
         <v>110</v>
       </c>
@@ -16070,7 +16070,7 @@
       </c>
       <c r="G306" s="9"/>
     </row>
-    <row r="307" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
         <v>110</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
         <v>110</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="12" t="s">
         <v>110</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
         <v>110</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="12" t="s">
         <v>110</v>
       </c>
@@ -16165,7 +16165,7 @@
       </c>
       <c r="G311" s="9"/>
     </row>
-    <row r="312" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="12" t="s">
         <v>110</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="12" t="s">
         <v>110</v>
       </c>
@@ -16210,7 +16210,7 @@
       <c r="G313" s="9"/>
       <c r="H313" s="9"/>
     </row>
-    <row r="314" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="12" t="s">
         <v>110</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
         <v>110</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="12" t="s">
         <v>110</v>
       </c>
@@ -16271,7 +16271,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
         <v>110</v>
       </c>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="G317" s="9"/>
     </row>
-    <row r="318" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="12" t="s">
         <v>110</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="319" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="49" t="s">
         <v>110</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="12" t="s">
         <v>110</v>
       </c>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="G320" s="9"/>
     </row>
-    <row r="321" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="12" t="s">
         <v>110</v>
       </c>
@@ -16373,7 +16373,7 @@
       </c>
       <c r="G321" s="9"/>
     </row>
-    <row r="322" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7" t="s">
         <v>110</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="12" t="s">
         <v>110</v>
       </c>
@@ -16412,7 +16412,7 @@
       </c>
       <c r="G323" s="9"/>
     </row>
-    <row r="324" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="12" t="s">
         <v>110</v>
       </c>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="G324" s="9"/>
     </row>
-    <row r="325" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="12" t="s">
         <v>110</v>
       </c>
@@ -16451,7 +16451,7 @@
       </c>
       <c r="G325" s="9"/>
     </row>
-    <row r="326" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="51" t="s">
         <v>110</v>
       </c>
@@ -16470,7 +16470,7 @@
       </c>
       <c r="G326" s="9"/>
     </row>
-    <row r="327" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="12" t="s">
         <v>110</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="12" t="s">
         <v>110</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="12" t="s">
         <v>110</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="12" t="s">
         <v>110</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="12" t="s">
         <v>110</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
         <v>110</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="12" t="s">
         <v>110</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="12" t="s">
         <v>110</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="12" t="s">
         <v>110</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="12" t="s">
         <v>110</v>
       </c>
@@ -16670,7 +16670,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
         <v>110</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
         <v>110</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
         <v>110</v>
       </c>
@@ -16730,7 +16730,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
         <v>110</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="12" t="s">
         <v>110</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="12" t="s">
         <v>110</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="12" t="s">
         <v>110</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="27" t="s">
         <v>110</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
         <v>110</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="12" t="s">
         <v>110</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="27" t="s">
         <v>110</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
         <v>90</v>
       </c>
@@ -16926,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
         <v>90</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="12" t="s">
         <v>90</v>
       </c>
@@ -16962,7 +16962,7 @@
       </c>
       <c r="G350" s="9"/>
     </row>
-    <row r="351" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="12" t="s">
         <v>90</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="12" t="s">
         <v>90</v>
       </c>
@@ -17001,7 +17001,7 @@
       </c>
       <c r="G352" s="9"/>
     </row>
-    <row r="353" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>90</v>
       </c>
@@ -17017,7 +17017,7 @@
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
         <v>90</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="12" t="s">
         <v>90</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="12" t="s">
         <v>90</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
         <v>90</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="358" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
         <v>90</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="359" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="12" t="s">
         <v>90</v>
       </c>
@@ -17137,7 +17137,7 @@
       </c>
       <c r="G359" s="9"/>
     </row>
-    <row r="360" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
         <v>90</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="361" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="12" t="s">
         <v>90</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>90</v>
       </c>
@@ -17192,7 +17192,7 @@
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
     </row>
-    <row r="363" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
         <v>90</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="364" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
         <v>90</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="365" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
         <v>106</v>
       </c>
@@ -17271,7 +17271,7 @@
       <c r="AD365" s="10"/>
       <c r="AE365" s="10"/>
     </row>
-    <row r="366" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="49" t="s">
         <v>106</v>
       </c>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="G366" s="10"/>
     </row>
-    <row r="367" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="7" t="s">
         <v>90</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="368" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="7" t="s">
         <v>90</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="7" t="s">
         <v>90</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
         <v>90</v>
       </c>
@@ -17362,7 +17362,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="371" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="7" t="s">
         <v>90</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="61" t="s">
         <v>90</v>
       </c>
@@ -17402,7 +17402,7 @@
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="12" t="s">
         <v>90</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="7" t="s">
         <v>90</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="7" t="s">
         <v>90</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
         <v>90</v>
       </c>
@@ -17481,7 +17481,7 @@
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="12" t="s">
         <v>90</v>
       </c>
@@ -17498,7 +17498,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="12" t="s">
         <v>90</v>
       </c>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="G378" s="9"/>
     </row>
-    <row r="379" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="12" t="s">
         <v>90</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="61" t="s">
         <v>90</v>
       </c>
@@ -17551,7 +17551,7 @@
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
     </row>
-    <row r="381" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="7" t="s">
         <v>90</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="7" t="s">
         <v>90</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="7" t="s">
         <v>90</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="49" t="s">
         <v>90</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="12" t="s">
         <v>90</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
         <v>90</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="12" t="s">
         <v>106</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="12" t="s">
         <v>106</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="12" t="s">
         <v>106</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="12" t="s">
         <v>106</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="12" t="s">
         <v>106</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
         <v>106</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="7" t="s">
         <v>106</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
         <v>106</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
         <v>106</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="12" t="s">
         <v>106</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="7" t="s">
         <v>106</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="12" t="s">
         <v>106</v>
       </c>
@@ -17898,7 +17898,7 @@
       </c>
       <c r="G398" s="9"/>
     </row>
-    <row r="399" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="49" t="s">
         <v>106</v>
       </c>
@@ -17917,7 +17917,7 @@
       </c>
       <c r="G399" s="10"/>
     </row>
-    <row r="400" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="12" t="s">
         <v>106</v>
       </c>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="G400" s="9"/>
     </row>
-    <row r="401" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="12" t="s">
         <v>106</v>
       </c>
@@ -17953,7 +17953,7 @@
       </c>
       <c r="G401" s="9"/>
     </row>
-    <row r="402" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="12" t="s">
         <v>106</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="12" t="s">
         <v>106</v>
       </c>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G403" s="9"/>
     </row>
-    <row r="404" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="12" t="s">
         <v>106</v>
       </c>
@@ -18006,7 +18006,7 @@
       </c>
       <c r="G404" s="9"/>
     </row>
-    <row r="405" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="12" t="s">
         <v>106</v>
       </c>
@@ -18024,7 +18024,7 @@
       </c>
       <c r="G405" s="9"/>
     </row>
-    <row r="406" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="12" t="s">
         <v>106</v>
       </c>
@@ -18042,7 +18042,7 @@
       </c>
       <c r="G406" s="9"/>
     </row>
-    <row r="407" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="12" t="s">
         <v>106</v>
       </c>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="G407" s="9"/>
     </row>
-    <row r="408" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="12" t="s">
         <v>106</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="12" t="s">
         <v>106</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="12" t="s">
         <v>106</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="7" t="s">
         <v>106</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="7" t="s">
         <v>106</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="12" t="s">
         <v>106</v>
       </c>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="G413" s="9"/>
     </row>
-    <row r="414" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="12" t="s">
         <v>106</v>
       </c>
@@ -18201,7 +18201,7 @@
       </c>
       <c r="G414" s="9"/>
     </row>
-    <row r="415" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="12" t="s">
         <v>106</v>
       </c>
@@ -18219,7 +18219,7 @@
       </c>
       <c r="G415" s="9"/>
     </row>
-    <row r="416" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="12" t="s">
         <v>106</v>
       </c>
@@ -18240,7 +18240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="12" t="s">
         <v>106</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="12" t="s">
         <v>106</v>
       </c>
@@ -18278,7 +18278,7 @@
       </c>
       <c r="G418" s="9"/>
     </row>
-    <row r="419" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="12" t="s">
         <v>106</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="12" t="s">
         <v>106</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="12" t="s">
         <v>106</v>
       </c>
@@ -18347,7 +18347,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="12" t="s">
         <v>106</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="12" t="s">
         <v>106</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="12" t="s">
         <v>106</v>
       </c>
@@ -18416,7 +18416,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="12" t="s">
         <v>106</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="12" t="s">
         <v>106</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="12" t="s">
         <v>106</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="12" t="s">
         <v>106</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="7" t="s">
         <v>106</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="7" t="s">
         <v>106</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="24" t="s">
         <v>106</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="7" t="s">
         <v>106</v>
       </c>
@@ -18572,7 +18572,7 @@
       </c>
       <c r="G432" s="9"/>
     </row>
-    <row r="433" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="12" t="s">
         <v>106</v>
       </c>
@@ -18592,7 +18592,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="12" t="s">
         <v>106</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="12" t="s">
         <v>106</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="12" t="s">
         <v>106</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="7" t="s">
         <v>106</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="7" t="s">
         <v>106</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="12" t="s">
         <v>106</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="12" t="s">
         <v>106</v>
       </c>
@@ -18742,7 +18742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="11" t="s">
         <v>106</v>
       </c>
@@ -18756,7 +18756,7 @@
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
     </row>
-    <row r="442" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="12" t="s">
         <v>106</v>
       </c>
@@ -18777,7 +18777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="12" t="s">
         <v>106</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="12" t="s">
         <v>106</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="445" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="49" t="s">
         <v>106</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="7" t="s">
         <v>106</v>
       </c>
@@ -18864,7 +18864,7 @@
       </c>
       <c r="G446" s="11"/>
     </row>
-    <row r="447" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="7" t="s">
         <v>106</v>
       </c>
@@ -18882,7 +18882,7 @@
       </c>
       <c r="G447" s="11"/>
     </row>
-    <row r="448" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="12" t="s">
         <v>106</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="449" spans="1:31" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:31" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="12" t="s">
         <v>106</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="450" spans="1:31" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:31" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="12" t="s">
         <v>106</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="451" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="7" t="s">
         <v>106</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="452" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="12" t="s">
         <v>106</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="453" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="12" t="s">
         <v>106</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="454" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="12" t="s">
         <v>106</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="455" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="12" t="s">
         <v>106</v>
       </c>
@@ -19037,7 +19037,7 @@
       </c>
       <c r="G455" s="9"/>
     </row>
-    <row r="456" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="12" t="s">
         <v>106</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="457" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="12" t="s">
         <v>106</v>
       </c>
@@ -19077,9 +19077,9 @@
         <v>679</v>
       </c>
     </row>
-    <row r="458" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="50" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B458" s="49" t="s">
         <v>272</v>
@@ -19099,7 +19099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="7" t="s">
         <v>106</v>
       </c>
@@ -19118,7 +19118,7 @@
       </c>
       <c r="G459" s="9"/>
     </row>
-    <row r="460" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="7" t="s">
         <v>106</v>
       </c>
@@ -19137,7 +19137,7 @@
       </c>
       <c r="G460" s="9"/>
     </row>
-    <row r="461" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="50" t="s">
         <v>106</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="12" t="s">
         <v>106</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="463" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="7" t="s">
         <v>106</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="464" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="12" t="s">
         <v>106</v>
       </c>
@@ -19243,7 +19243,7 @@
       <c r="AD464" s="10"/>
       <c r="AE464" s="10"/>
     </row>
-    <row r="465" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="12" t="s">
         <v>106</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="12" t="s">
         <v>106</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="7" t="s">
         <v>106</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="12" t="s">
         <v>106</v>
       </c>
@@ -19331,7 +19331,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="469" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="7" t="s">
         <v>106</v>
       </c>
@@ -19350,7 +19350,7 @@
       </c>
       <c r="G469" s="11"/>
     </row>
-    <row r="470" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="12" t="s">
         <v>106</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="12" t="s">
         <v>106</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="12" t="s">
         <v>106</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="7" t="s">
         <v>106</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="12" t="s">
         <v>106</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="7" t="s">
         <v>106</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="12" t="s">
         <v>106</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="12" t="s">
         <v>106</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="12" t="s">
         <v>106</v>
       </c>
@@ -19546,9 +19546,9 @@
         <v>760</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B479" s="13" t="s">
         <v>1242</v>
@@ -19564,7 +19564,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="12" t="s">
         <v>106</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="12" t="s">
         <v>106</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="12" t="s">
         <v>106</v>
       </c>
@@ -19628,11 +19628,11 @@
         <v>496</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B483" s="13" t="s">
+      <c r="B483" s="14" t="s">
         <v>1242</v>
       </c>
       <c r="C483" s="18" t="s">
@@ -19645,11 +19645,14 @@
       <c r="F483" s="11" t="s">
         <v>339</v>
       </c>
+      <c r="G483" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="H483" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="12" t="s">
         <v>106</v>
       </c>
@@ -19672,7 +19675,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A485" s="12" t="s">
         <v>106</v>
       </c>
@@ -19690,7 +19693,7 @@
       </c>
       <c r="G485" s="9"/>
     </row>
-    <row r="486" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="7" t="s">
         <v>106</v>
       </c>
@@ -19708,7 +19711,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="12" t="s">
         <v>106</v>
       </c>
@@ -19729,7 +19732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="7" t="s">
         <v>106</v>
       </c>
@@ -19747,7 +19750,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="12" t="s">
         <v>106</v>
       </c>
@@ -19765,7 +19768,7 @@
       </c>
       <c r="G489" s="9"/>
     </row>
-    <row r="490" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="7" t="s">
         <v>106</v>
       </c>
@@ -19783,7 +19786,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="12" t="s">
         <v>106</v>
       </c>
@@ -19804,25 +19807,26 @@
         <v>760</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="12" t="s">
+    <row r="492" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B492" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="C492" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="D492" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F492" s="9" t="s">
-        <v>339</v>
+      <c r="B492" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="C492" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="D492" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E492" s="10"/>
+      <c r="F492" s="10" t="s">
+        <v>613</v>
       </c>
       <c r="G492" s="9"/>
     </row>
-    <row r="493" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="7" t="s">
         <v>163</v>
       </c>
@@ -19845,7 +19849,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="12" t="s">
         <v>163</v>
       </c>
@@ -19866,7 +19870,7 @@
       </c>
       <c r="G494" s="9"/>
     </row>
-    <row r="495" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="7" t="s">
         <v>163</v>
       </c>
@@ -19889,7 +19893,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="12" t="s">
         <v>163</v>
       </c>
@@ -19910,7 +19914,7 @@
       </c>
       <c r="G496" s="9"/>
     </row>
-    <row r="497" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="7" t="s">
         <v>163</v>
       </c>
@@ -19933,7 +19937,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="7" t="s">
         <v>163</v>
       </c>
@@ -19956,7 +19960,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="7" t="s">
         <v>163</v>
       </c>
@@ -19979,7 +19983,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="500" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="7" t="s">
         <v>163</v>
       </c>
@@ -20002,7 +20006,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="501" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="7" t="s">
         <v>163</v>
       </c>
@@ -20025,7 +20029,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="502" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="7" t="s">
         <v>163</v>
       </c>
@@ -20048,7 +20052,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="503" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="7" t="s">
         <v>163</v>
       </c>
@@ -20071,7 +20075,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="504" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="12" t="s">
         <v>163</v>
       </c>
@@ -20092,7 +20096,7 @@
       </c>
       <c r="G504" s="9"/>
     </row>
-    <row r="505" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="7" t="s">
         <v>163</v>
       </c>
@@ -20110,7 +20114,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="506" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="7" t="s">
         <v>163</v>
       </c>
@@ -20128,7 +20132,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="507" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="51" t="s">
         <v>163</v>
       </c>
@@ -20147,7 +20151,7 @@
       </c>
       <c r="G507" s="9"/>
     </row>
-    <row r="508" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="12" t="s">
         <v>163</v>
       </c>
@@ -20168,7 +20172,7 @@
       </c>
       <c r="G508" s="9"/>
     </row>
-    <row r="509" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="7" t="s">
         <v>163</v>
       </c>
@@ -20186,7 +20190,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="510" spans="1:31" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:31" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A510" s="7" t="s">
         <v>90</v>
       </c>
@@ -20229,7 +20233,7 @@
       <c r="AD510" s="11"/>
       <c r="AE510" s="11"/>
     </row>
-    <row r="511" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="7" t="s">
         <v>90</v>
       </c>
@@ -20247,7 +20251,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="512" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="7" t="s">
         <v>90</v>
       </c>
@@ -20266,22 +20270,22 @@
       </c>
       <c r="G512" s="9"/>
     </row>
-    <row r="513" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="49" t="s">
+    <row r="513" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B513" s="49" t="s">
-        <v>679</v>
-      </c>
-      <c r="C513" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="D513" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E513" s="10"/>
-      <c r="F513" s="10" t="s">
-        <v>613</v>
+      <c r="B513" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="C513" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="D513" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E513" s="9"/>
+      <c r="F513" s="9" t="s">
+        <v>339</v>
       </c>
       <c r="G513" s="9"/>
       <c r="H513" s="9"/>
@@ -20309,7 +20313,7 @@
       <c r="AD513" s="10"/>
       <c r="AE513" s="10"/>
     </row>
-    <row r="514" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="12" t="s">
         <v>106</v>
       </c>
@@ -20332,7 +20336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="12" t="s">
         <v>106</v>
       </c>
@@ -20355,24 +20359,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="7" t="s">
+    <row r="516" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B516" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C516" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D516" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E516" s="11"/>
-      <c r="F516" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G516" s="11"/>
+      <c r="B516" s="49" t="s">
+        <v>679</v>
+      </c>
+      <c r="C516" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="D516" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E516" s="10"/>
+      <c r="F516" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="G516" s="9"/>
       <c r="H516" s="9"/>
       <c r="I516" s="10"/>
       <c r="J516" s="10"/>
@@ -20398,7 +20402,7 @@
       <c r="AD516" s="10"/>
       <c r="AE516" s="10"/>
     </row>
-    <row r="517" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="8" t="s">
         <v>106</v>
       </c>
@@ -20421,7 +20425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="12" t="s">
         <v>90</v>
       </c>
@@ -20439,7 +20443,7 @@
       </c>
       <c r="G518" s="9"/>
     </row>
-    <row r="519" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="7" t="s">
         <v>90</v>
       </c>
@@ -20463,7 +20467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="12" t="s">
         <v>90</v>
       </c>
@@ -20481,15 +20485,15 @@
       </c>
       <c r="G520" s="9"/>
     </row>
-    <row r="521" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B521" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C521" s="16" t="s">
-        <v>1185</v>
+        <v>17</v>
+      </c>
+      <c r="C521" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="D521" s="11" t="s">
         <v>277</v>
@@ -20498,32 +20502,29 @@
       <c r="F521" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="H521" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="12" t="s">
+    </row>
+    <row r="522" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B522" s="13" t="s">
-        <v>1221</v>
+        <v>127</v>
       </c>
       <c r="C522" s="16" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D522" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F522" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="G522" s="9"/>
+        <v>1185</v>
+      </c>
+      <c r="D522" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E522" s="11"/>
+      <c r="F522" s="11" t="s">
+        <v>339</v>
+      </c>
       <c r="H522" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="7" t="s">
         <v>108</v>
       </c>
@@ -20542,25 +20543,28 @@
       </c>
       <c r="H523" s="11"/>
     </row>
-    <row r="524" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="7" t="s">
+    <row r="524" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B524" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C524" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D524" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E524" s="11"/>
-      <c r="F524" s="11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="525" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1221</v>
+      </c>
+      <c r="C524" s="16" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D524" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F524" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G524" s="9"/>
+      <c r="H524" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="7" t="s">
         <v>90</v>
       </c>
@@ -20584,15 +20588,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B526" s="13" t="s">
-        <v>928</v>
+        <v>350</v>
       </c>
       <c r="C526" s="18" t="s">
-        <v>780</v>
+        <v>128</v>
       </c>
       <c r="D526" s="11" t="s">
         <v>277</v>
@@ -20602,15 +20606,15 @@
         <v>339</v>
       </c>
     </row>
-    <row r="527" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B527" s="13" t="s">
-        <v>27</v>
+        <v>928</v>
       </c>
       <c r="C527" s="18" t="s">
-        <v>28</v>
+        <v>780</v>
       </c>
       <c r="D527" s="11" t="s">
         <v>277</v>
@@ -20619,31 +20623,27 @@
       <c r="F527" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G527" s="9"/>
-    </row>
-    <row r="528" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="49" t="s">
+    </row>
+    <row r="528" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B528" s="49" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C528" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="D528" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E528" s="10"/>
-      <c r="F528" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="G528" s="10"/>
-      <c r="H528" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B528" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C528" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D528" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E528" s="11"/>
+      <c r="F528" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G528" s="9"/>
+    </row>
+    <row r="529" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="12" t="s">
         <v>108</v>
       </c>
@@ -20664,45 +20664,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="7" t="s">
+    <row r="530" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B530" s="13" t="s">
+      <c r="B530" s="49" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C530" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="D530" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E530" s="10"/>
+      <c r="F530" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="G530" s="10"/>
+      <c r="H530" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B531" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C530" s="18" t="s">
+      <c r="C531" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D530" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E530" s="11"/>
-      <c r="F530" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G530" s="9"/>
-    </row>
-    <row r="531" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B531" s="49" t="s">
-        <v>496</v>
-      </c>
-      <c r="C531" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="D531" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="E531" s="10"/>
-      <c r="F531" s="10" t="s">
-        <v>613</v>
+      <c r="D531" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E531" s="11"/>
+      <c r="F531" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="G531" s="9"/>
     </row>
-    <row r="532" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="49" t="s">
         <v>108</v>
       </c>
@@ -20722,7 +20725,7 @@
       <c r="G532" s="9"/>
       <c r="H532" s="11"/>
     </row>
-    <row r="533" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="7" t="s">
         <v>108</v>
       </c>
@@ -20741,7 +20744,7 @@
       </c>
       <c r="H533" s="11"/>
     </row>
-    <row r="534" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="7" t="s">
         <v>108</v>
       </c>
@@ -20760,7 +20763,7 @@
       </c>
       <c r="H534" s="11"/>
     </row>
-    <row r="535" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="51" t="s">
         <v>108</v>
       </c>
@@ -20780,7 +20783,7 @@
       <c r="G535" s="9"/>
       <c r="H535" s="11"/>
     </row>
-    <row r="536" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:31" s="99" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="12" t="s">
         <v>90</v>
       </c>
@@ -20825,7 +20828,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H536" xr:uid="{A93A0E0A-2E98-416E-BA90-6F956555B26D}"/>
-  <sortState ref="A2:G459">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G459">
     <sortCondition ref="B1"/>
   </sortState>
   <hyperlinks>
@@ -20851,7 +20854,7 @@
     <hyperlink ref="C98" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
     <hyperlink ref="C86" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
     <hyperlink ref="C39" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="C527" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="C528" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
     <hyperlink ref="C395" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
     <hyperlink ref="C268" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
     <hyperlink ref="C374" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
@@ -20866,7 +20869,7 @@
     <hyperlink ref="C270" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
     <hyperlink ref="C345" r:id="rId36" location="Quality" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
     <hyperlink ref="C90" r:id="rId37" location="Quality" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="C530" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="C531" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
     <hyperlink ref="C348" r:id="rId39" location="/" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
     <hyperlink ref="C99" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
     <hyperlink ref="C139" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
@@ -20936,7 +20939,7 @@
     <hyperlink ref="C392" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
     <hyperlink ref="C475" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
     <hyperlink ref="C467" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="C516" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="C521" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
     <hyperlink ref="C73" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
     <hyperlink ref="C70" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
     <hyperlink ref="C87" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
@@ -21046,7 +21049,7 @@
     <hyperlink ref="C316" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
     <hyperlink ref="C309" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
     <hyperlink ref="C400" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
-    <hyperlink ref="C524" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="C526" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
     <hyperlink ref="C478" r:id="rId219" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
     <hyperlink ref="C481" r:id="rId220" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
     <hyperlink ref="C439" r:id="rId221" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
@@ -21056,8 +21059,8 @@
     <hyperlink ref="C485" r:id="rId225" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
     <hyperlink ref="C85" r:id="rId226" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
     <hyperlink ref="C33" r:id="rId227" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
-    <hyperlink ref="C492" r:id="rId228" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
-    <hyperlink ref="C526" r:id="rId229" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
+    <hyperlink ref="C513" r:id="rId228" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="C527" r:id="rId229" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
     <hyperlink ref="C472" r:id="rId230" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
     <hyperlink ref="C428" r:id="rId231" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
     <hyperlink ref="C436" r:id="rId232" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
@@ -21134,7 +21137,7 @@
     <hyperlink ref="C57" r:id="rId303" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
     <hyperlink ref="C385" r:id="rId304" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
     <hyperlink ref="C379" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
-    <hyperlink ref="C521" display="https://wp-myb-portal.web.boeing.com/myb/myportal/BCA/bcateamleader/Home/!ut/p/z1/04_iUlDg4tKPAFJABpSA0fpReYllmemJJZn5eYk5-hH6kVFm8WYeBiaeBs4Gvu4h5oYGjn7OfmHeZpbGPh5G-uFoCoxDnAwcfSwDLV2dgwwN3I31o4jRb4ADOBoQpx-Pgij8xnvhtcDVDGhBFCEl6Aoww4CQKwpyQ0MjKoM90x0VF" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
+    <hyperlink ref="C522" display="https://wp-myb-portal.web.boeing.com/myb/myportal/BCA/bcateamleader/Home/!ut/p/z1/04_iUlDg4tKPAFJABpSA0fpReYllmemJJZn5eYk5-hH6kVFm8WYeBiaeBs4Gvu4h5oYGjn7OfmHeZpbGPh5G-uFoCoxDnAwcfSwDLV2dgwwN3I31o4jRb4ADOBoQpx-Pgij8xnvhtcDVDGhBFCEl6Aoww4CQKwpyQ0MjKoM90x0VF" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
     <hyperlink ref="C517" r:id="rId306" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
     <hyperlink ref="C373" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
     <hyperlink ref="C356" r:id="rId308" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
@@ -21145,7 +21148,7 @@
     <hyperlink ref="C416" r:id="rId313" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
     <hyperlink ref="C361" r:id="rId314" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
     <hyperlink ref="C487" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
-    <hyperlink ref="C522" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
+    <hyperlink ref="C524" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
     <hyperlink ref="C351" r:id="rId317" xr:uid="{23002BF4-89E7-43B5-B7EB-550BE39BEF57}"/>
     <hyperlink ref="C370" r:id="rId318" xr:uid="{60288901-E914-4B56-82B7-BC8F0D4A8C7A}"/>
     <hyperlink ref="C483" r:id="rId319" xr:uid="{84519027-A9B8-4370-9EA8-E18DA3DF44BC}"/>
@@ -21165,38 +21168,38 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -21219,21 +21222,21 @@
       <selection pane="bottomLeft" sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="30" customWidth="1"/>
     <col min="2" max="2" width="14" style="41" customWidth="1"/>
     <col min="3" max="3" width="64" style="19" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="30" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="30"/>
+    <col min="4" max="4" width="49.88671875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="30" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>460</v>
       </c>
@@ -21262,7 +21265,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>464</v>
       </c>
@@ -21289,7 +21292,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>464</v>
       </c>
@@ -21316,7 +21319,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>464</v>
       </c>
@@ -21343,7 +21346,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>464</v>
       </c>
@@ -21370,7 +21373,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>464</v>
       </c>
@@ -21397,7 +21400,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>464</v>
       </c>
@@ -21424,7 +21427,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>480</v>
       </c>
@@ -21449,7 +21452,7 @@
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>480</v>
       </c>
@@ -21474,7 +21477,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>480</v>
       </c>
@@ -21499,7 +21502,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>480</v>
       </c>
@@ -21524,7 +21527,7 @@
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>483</v>
       </c>
@@ -21547,7 +21550,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>633</v>
       </c>
@@ -21574,7 +21577,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>633</v>
       </c>
@@ -21601,7 +21604,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>633</v>
       </c>
@@ -21628,7 +21631,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>633</v>
       </c>
@@ -21655,7 +21658,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>633</v>
       </c>
@@ -21682,7 +21685,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>633</v>
       </c>
@@ -21709,7 +21712,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>633</v>
       </c>
@@ -21736,7 +21739,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>633</v>
       </c>
@@ -21763,7 +21766,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="59" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" s="59" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>633</v>
       </c>
@@ -21790,7 +21793,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>633</v>
       </c>
@@ -21817,7 +21820,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>633</v>
       </c>
@@ -21844,7 +21847,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>633</v>
       </c>
@@ -21871,7 +21874,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>633</v>
       </c>
@@ -21898,7 +21901,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>633</v>
       </c>
@@ -21925,7 +21928,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>633</v>
       </c>
@@ -21952,7 +21955,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" s="59" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>633</v>
       </c>
@@ -22009,7 +22012,7 @@
       <c r="AL28" s="30"/>
       <c r="AM28" s="30"/>
     </row>
-    <row r="29" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>633</v>
       </c>
@@ -22036,7 +22039,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>633</v>
       </c>
@@ -22063,7 +22066,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
         <v>633</v>
       </c>
@@ -22090,7 +22093,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>633</v>
       </c>
@@ -22117,7 +22120,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
         <v>633</v>
       </c>
@@ -22144,7 +22147,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>633</v>
       </c>
@@ -22171,7 +22174,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>633</v>
       </c>
@@ -22198,7 +22201,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>633</v>
       </c>
@@ -22225,7 +22228,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>633</v>
       </c>
@@ -22252,7 +22255,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>633</v>
       </c>
@@ -22279,7 +22282,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
       <c r="B39" s="67">
         <v>43150</v>
@@ -22302,7 +22305,7 @@
       <c r="H39" s="32"/>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="38"/>
       <c r="B40" s="40"/>
       <c r="C40" s="35" t="s">
@@ -22323,7 +22326,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>667</v>
       </c>
@@ -22348,7 +22351,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>667</v>
       </c>
@@ -22375,7 +22378,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="59" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" s="59" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>667</v>
       </c>
@@ -22417,7 +22420,7 @@
       <c r="W43" s="30"/>
       <c r="X43" s="30"/>
     </row>
-    <row r="44" spans="1:24" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>667</v>
       </c>
@@ -22459,7 +22462,7 @@
       <c r="W44" s="30"/>
       <c r="X44" s="30"/>
     </row>
-    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
         <v>667</v>
       </c>
@@ -22482,7 +22485,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
         <v>667</v>
       </c>
@@ -22509,7 +22512,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
         <v>689</v>
       </c>
@@ -22534,7 +22537,7 @@
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" spans="1:24" s="59" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>689</v>
       </c>
@@ -22559,7 +22562,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="73" t="s">
         <v>695</v>
       </c>
@@ -22586,7 +22589,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="59" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="59" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="74" t="s">
         <v>1010</v>
       </c>
@@ -22607,7 +22610,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="59" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="59" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="74" t="s">
         <v>1012</v>
       </c>
@@ -22628,7 +22631,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="59" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
         <v>1014</v>
       </c>
@@ -22653,7 +22656,7 @@
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>1014</v>
       </c>
@@ -22678,7 +22681,7 @@
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" spans="1:9" s="59" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="59" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
         <v>1014</v>
       </c>
@@ -22703,7 +22706,7 @@
       <c r="H54" s="35"/>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:9" s="59" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="59" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
         <v>1014</v>
       </c>
@@ -22728,7 +22731,7 @@
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:9" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>1014</v>
       </c>
@@ -22753,7 +22756,7 @@
       <c r="H56" s="35"/>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22774,7 +22777,7 @@
       <c r="H57" s="76"/>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22791,7 +22794,7 @@
       <c r="H58" s="76"/>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22808,7 +22811,7 @@
       <c r="H59" s="76"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22825,7 +22828,7 @@
       <c r="H60" s="76"/>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22842,7 +22845,7 @@
       <c r="H61" s="76"/>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22859,7 +22862,7 @@
       <c r="H62" s="76"/>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22882,7 +22885,7 @@
       <c r="H63" s="76"/>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22901,7 +22904,7 @@
       <c r="H64" s="76"/>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22920,7 +22923,7 @@
       <c r="H65" s="76"/>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22937,7 +22940,7 @@
       <c r="H66" s="76"/>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22954,7 +22957,7 @@
       <c r="H67" s="76"/>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22975,7 +22978,7 @@
       <c r="H68" s="76"/>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="76" t="s">
         <v>1014</v>
       </c>
@@ -22994,7 +22997,7 @@
       <c r="H69" s="76"/>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="76" t="s">
         <v>1014</v>
       </c>
@@ -23017,7 +23020,7 @@
       <c r="H70" s="76"/>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="76" t="s">
         <v>1014</v>
       </c>
@@ -23038,7 +23041,7 @@
       <c r="H71" s="76"/>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="76" t="s">
         <v>1014</v>
       </c>
@@ -23059,7 +23062,7 @@
       <c r="H72" s="76"/>
       <c r="I72" s="32"/>
     </row>
-    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="76" t="s">
         <v>1014</v>
       </c>
@@ -23078,7 +23081,7 @@
       <c r="H73" s="76"/>
       <c r="I73" s="32"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="69"/>
       <c r="F74" s="19"/>
@@ -23086,7 +23089,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="69"/>
       <c r="F75" s="19"/>
@@ -23094,7 +23097,7 @@
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="69"/>
       <c r="F76" s="19"/>
@@ -23102,7 +23105,7 @@
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="69"/>
       <c r="F77" s="19"/>
@@ -23110,7 +23113,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="69"/>
       <c r="F78" s="19"/>
@@ -23118,7 +23121,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="69"/>
       <c r="F79" s="19"/>
@@ -23126,7 +23129,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="69"/>
       <c r="F80" s="19"/>
@@ -23134,7 +23137,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="19"/>
       <c r="B81" s="69"/>
       <c r="F81" s="19"/>
@@ -23142,7 +23145,7 @@
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
       <c r="B82" s="69"/>
       <c r="F82" s="19"/>
@@ -23150,7 +23153,7 @@
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
       <c r="B83" s="69"/>
       <c r="F83" s="19"/>
@@ -23158,7 +23161,7 @@
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="69"/>
       <c r="F84" s="19"/>
@@ -23166,7 +23169,7 @@
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
       <c r="B85" s="69"/>
       <c r="F85" s="19"/>
@@ -23174,7 +23177,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
       <c r="B86" s="69"/>
       <c r="F86" s="19"/>
@@ -23182,7 +23185,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
       <c r="B87" s="69"/>
       <c r="F87" s="19"/>
@@ -23190,7 +23193,7 @@
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
       <c r="B88" s="69"/>
       <c r="F88" s="19"/>
@@ -23198,7 +23201,7 @@
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="19"/>
       <c r="B89" s="69"/>
       <c r="F89" s="19"/>
@@ -23206,7 +23209,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="69"/>
       <c r="F90" s="19"/>
@@ -23214,7 +23217,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="69"/>
       <c r="F91" s="19"/>
@@ -23222,7 +23225,7 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
       <c r="B92" s="69"/>
       <c r="F92" s="19"/>
@@ -23230,7 +23233,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
       <c r="B93" s="69"/>
       <c r="F93" s="19"/>
@@ -23261,18 +23264,18 @@
       <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1134</v>
       </c>
@@ -23298,7 +23301,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1142</v>
       </c>
@@ -23324,7 +23327,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1142</v>
       </c>
@@ -23350,7 +23353,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1142</v>
       </c>
@@ -23376,7 +23379,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1142</v>
       </c>
@@ -23402,7 +23405,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1142</v>
       </c>
@@ -23428,7 +23431,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1142</v>
       </c>
@@ -23454,7 +23457,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1142</v>
       </c>
@@ -23480,7 +23483,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1142</v>
       </c>
@@ -23506,7 +23509,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1142</v>
       </c>
@@ -23532,7 +23535,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1142</v>
       </c>
@@ -23558,7 +23561,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1142</v>
       </c>
@@ -23584,7 +23587,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1142</v>
       </c>
@@ -23612,7 +23615,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H10" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState ref="A2:H13">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
       <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
@@ -23635,14 +23638,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="75" customWidth="1"/>
-    <col min="3" max="3" width="78.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="75" customWidth="1"/>
+    <col min="3" max="3" width="78.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>463</v>
       </c>
@@ -23653,7 +23656,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="55">
         <v>43143</v>
       </c>
@@ -23664,7 +23667,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="55">
         <v>43144</v>
       </c>
@@ -23675,7 +23678,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="55">
         <v>43144</v>
       </c>
@@ -23686,7 +23689,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="55">
         <v>43147</v>
       </c>
@@ -23697,7 +23700,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="60">
         <v>43150</v>
       </c>
@@ -23708,7 +23711,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="60">
         <v>43151</v>
       </c>
@@ -23719,7 +23722,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="60">
         <v>43152</v>
       </c>
@@ -23730,7 +23733,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="60">
         <v>43152</v>
       </c>
@@ -23741,7 +23744,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="78">
         <v>43152</v>
       </c>
@@ -23752,7 +23755,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="78">
         <v>43153</v>
       </c>
@@ -23763,7 +23766,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="78">
         <v>43154</v>
       </c>
@@ -23774,7 +23777,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="78">
         <v>43154</v>
       </c>
@@ -23785,7 +23788,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="78">
         <v>43154</v>
       </c>
@@ -23796,7 +23799,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="60">
         <v>43157</v>
       </c>
@@ -23807,7 +23810,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="60">
         <v>43158</v>
       </c>
@@ -23818,7 +23821,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="60">
         <v>43158</v>
       </c>
@@ -23844,15 +23847,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="110.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>916</v>
       </c>
@@ -23866,7 +23869,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>71</v>
       </c>
@@ -23880,7 +23883,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" s="46" t="s">
         <v>832</v>
@@ -23892,7 +23895,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="46" t="s">
         <v>835</v>
@@ -23904,7 +23907,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="46" t="s">
         <v>838</v>
@@ -23916,7 +23919,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
       <c r="B6" s="46" t="s">
         <v>838</v>
@@ -23928,7 +23931,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="46" t="s">
         <v>841</v>
@@ -23940,7 +23943,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" s="46" t="s">
         <v>844</v>
@@ -23952,7 +23955,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="46" t="s">
         <v>847</v>
@@ -23964,7 +23967,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>73</v>
       </c>
@@ -23978,7 +23981,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="46" t="s">
         <v>851</v>
@@ -23990,7 +23993,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="46" t="s">
         <v>854</v>
@@ -24002,7 +24005,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>55</v>
       </c>
@@ -24016,7 +24019,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="46" t="s">
         <v>860</v>
@@ -24028,7 +24031,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
         <v>54</v>
       </c>
@@ -24042,7 +24045,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="46" t="s">
         <v>866</v>
@@ -24054,7 +24057,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="46" t="s">
         <v>866</v>
@@ -24066,7 +24069,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="46" t="s">
         <v>869</v>
@@ -24078,7 +24081,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>70</v>
       </c>
@@ -24092,7 +24095,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="46" t="s">
         <v>875</v>
@@ -24104,7 +24107,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
       <c r="B21" s="46" t="s">
         <v>878</v>
@@ -24116,7 +24119,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="46" t="s">
         <v>878</v>
@@ -24128,7 +24131,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="46" t="s">
         <v>881</v>
@@ -24140,7 +24143,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="46" t="s">
         <v>884</v>
@@ -24152,7 +24155,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="46" t="s">
         <v>887</v>
@@ -24164,7 +24167,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="46" t="s">
         <v>890</v>
@@ -24176,7 +24179,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="46" t="s">
         <v>893</v>
@@ -24188,7 +24191,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
       <c r="B28" s="46" t="s">
         <v>896</v>
@@ -24200,7 +24203,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="46" t="s">
         <v>899</v>
@@ -24212,7 +24215,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="46" t="s">
         <v>901</v>
@@ -24224,7 +24227,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="46" t="s">
         <v>904</v>
@@ -24236,7 +24239,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="46" t="s">
         <v>904</v>
@@ -24248,7 +24251,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="46" t="s">
         <v>907</v>
@@ -24260,7 +24263,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="46" t="s">
         <v>910</v>
@@ -24272,7 +24275,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
       <c r="B35" s="46" t="s">
         <v>910</v>
@@ -24284,7 +24287,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="46" t="s">
         <v>913</v>
@@ -24296,7 +24299,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>
       <c r="B37" s="46" t="s">
         <v>913</v>
@@ -24323,16 +24326,16 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="48"/>
+    <col min="1" max="1" width="12.109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>916</v>
       </c>
@@ -24346,7 +24349,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>72</v>
       </c>
@@ -24360,7 +24363,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>74</v>
       </c>
@@ -24374,7 +24377,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>75</v>
       </c>
